--- a/data/nzd0220/nzd0220.xlsx
+++ b/data/nzd0220/nzd0220.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R391"/>
+  <dimension ref="A1:R398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22264,6 +22264,406 @@
         </is>
       </c>
     </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-28 22:00:03+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>382.3555555555556</v>
+      </c>
+      <c r="C392" t="n">
+        <v>379.14</v>
+      </c>
+      <c r="D392" t="n">
+        <v>386.74</v>
+      </c>
+      <c r="E392" t="n">
+        <v>388.46</v>
+      </c>
+      <c r="F392" t="n">
+        <v>384.72</v>
+      </c>
+      <c r="G392" t="n">
+        <v>381.94</v>
+      </c>
+      <c r="H392" t="n">
+        <v>388.47</v>
+      </c>
+      <c r="I392" t="n">
+        <v>394.05</v>
+      </c>
+      <c r="J392" t="n">
+        <v>384.84</v>
+      </c>
+      <c r="K392" t="n">
+        <v>380.870909090909</v>
+      </c>
+      <c r="L392" t="n">
+        <v>380.28</v>
+      </c>
+      <c r="M392" t="n">
+        <v>381.38</v>
+      </c>
+      <c r="N392" t="n">
+        <v>382.88</v>
+      </c>
+      <c r="O392" t="n">
+        <v>384.04</v>
+      </c>
+      <c r="P392" t="n">
+        <v>378.0309090909091</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>375.9809090909091</v>
+      </c>
+      <c r="R392" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 21:59:59+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>385.4166666666667</v>
+      </c>
+      <c r="C393" t="n">
+        <v>390.65</v>
+      </c>
+      <c r="D393" t="n">
+        <v>394.83</v>
+      </c>
+      <c r="E393" t="n">
+        <v>396.15</v>
+      </c>
+      <c r="F393" t="n">
+        <v>393.85</v>
+      </c>
+      <c r="G393" t="n">
+        <v>388.88</v>
+      </c>
+      <c r="H393" t="n">
+        <v>398.75</v>
+      </c>
+      <c r="I393" t="n">
+        <v>400.37</v>
+      </c>
+      <c r="J393" t="n">
+        <v>397.91</v>
+      </c>
+      <c r="K393" t="n">
+        <v>383.8563636363637</v>
+      </c>
+      <c r="L393" t="n">
+        <v>386.25</v>
+      </c>
+      <c r="M393" t="n">
+        <v>389.63</v>
+      </c>
+      <c r="N393" t="n">
+        <v>391.51</v>
+      </c>
+      <c r="O393" t="n">
+        <v>387.12</v>
+      </c>
+      <c r="P393" t="n">
+        <v>378.6763636363637</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>367.4263636363637</v>
+      </c>
+      <c r="R393" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 21:59:51+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>373.0644444444445</v>
+      </c>
+      <c r="C394" t="n">
+        <v>375.9</v>
+      </c>
+      <c r="D394" t="n">
+        <v>378.64</v>
+      </c>
+      <c r="E394" t="n">
+        <v>385.36</v>
+      </c>
+      <c r="F394" t="n">
+        <v>381.1</v>
+      </c>
+      <c r="G394" t="n">
+        <v>380.16</v>
+      </c>
+      <c r="H394" t="n">
+        <v>385.52</v>
+      </c>
+      <c r="I394" t="n">
+        <v>389.32</v>
+      </c>
+      <c r="J394" t="n">
+        <v>381.92</v>
+      </c>
+      <c r="K394" t="n">
+        <v>375.4045454545454</v>
+      </c>
+      <c r="L394" t="n">
+        <v>377.39</v>
+      </c>
+      <c r="M394" t="n">
+        <v>377.99</v>
+      </c>
+      <c r="N394" t="n">
+        <v>381.95</v>
+      </c>
+      <c r="O394" t="n">
+        <v>382.58</v>
+      </c>
+      <c r="P394" t="n">
+        <v>369.0745454545454</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>360.1145454545455</v>
+      </c>
+      <c r="R394" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>386.0111111111111</v>
+      </c>
+      <c r="C395" t="n">
+        <v>384.51</v>
+      </c>
+      <c r="D395" t="n">
+        <v>385.63</v>
+      </c>
+      <c r="E395" t="n">
+        <v>388.8</v>
+      </c>
+      <c r="F395" t="n">
+        <v>386.89</v>
+      </c>
+      <c r="G395" t="n">
+        <v>387.94</v>
+      </c>
+      <c r="H395" t="n">
+        <v>398.91</v>
+      </c>
+      <c r="I395" t="n">
+        <v>395.72</v>
+      </c>
+      <c r="J395" t="n">
+        <v>391</v>
+      </c>
+      <c r="K395" t="n">
+        <v>383.6218181818182</v>
+      </c>
+      <c r="L395" t="n">
+        <v>383.68</v>
+      </c>
+      <c r="M395" t="n">
+        <v>384.78</v>
+      </c>
+      <c r="N395" t="n">
+        <v>383.9500000000001</v>
+      </c>
+      <c r="O395" t="n">
+        <v>389.5700000000001</v>
+      </c>
+      <c r="P395" t="n">
+        <v>379.0518181818182</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>358.1018181818182</v>
+      </c>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-07 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>380.4688888888889</v>
+      </c>
+      <c r="C396" t="n">
+        <v>388.82</v>
+      </c>
+      <c r="D396" t="n">
+        <v>391.86</v>
+      </c>
+      <c r="E396" t="n">
+        <v>390.82</v>
+      </c>
+      <c r="F396" t="n">
+        <v>387.82</v>
+      </c>
+      <c r="G396" t="n">
+        <v>387.58</v>
+      </c>
+      <c r="H396" t="n">
+        <v>397.2</v>
+      </c>
+      <c r="I396" t="n">
+        <v>394.75</v>
+      </c>
+      <c r="J396" t="n">
+        <v>388.22</v>
+      </c>
+      <c r="K396" t="n">
+        <v>387.4372727272727</v>
+      </c>
+      <c r="L396" t="n">
+        <v>386.72</v>
+      </c>
+      <c r="M396" t="n">
+        <v>386.64</v>
+      </c>
+      <c r="N396" t="n">
+        <v>388.83</v>
+      </c>
+      <c r="O396" t="n">
+        <v>392.23</v>
+      </c>
+      <c r="P396" t="n">
+        <v>374.7472727272727</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>360.5472727272728</v>
+      </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-23 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>380.2777777777778</v>
+      </c>
+      <c r="C397" t="n">
+        <v>386.34</v>
+      </c>
+      <c r="D397" t="n">
+        <v>388.47</v>
+      </c>
+      <c r="E397" t="n">
+        <v>386.88</v>
+      </c>
+      <c r="F397" t="n">
+        <v>384.45</v>
+      </c>
+      <c r="G397" t="n">
+        <v>385.94</v>
+      </c>
+      <c r="H397" t="inlineStr"/>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="inlineStr"/>
+      <c r="M397" t="inlineStr"/>
+      <c r="N397" t="inlineStr"/>
+      <c r="O397" t="inlineStr"/>
+      <c r="P397" t="inlineStr"/>
+      <c r="Q397" t="inlineStr"/>
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>387.0855555555555</v>
+      </c>
+      <c r="C398" t="n">
+        <v>390.68</v>
+      </c>
+      <c r="D398" t="n">
+        <v>387.65</v>
+      </c>
+      <c r="E398" t="n">
+        <v>389.56</v>
+      </c>
+      <c r="F398" t="n">
+        <v>387.93</v>
+      </c>
+      <c r="G398" t="n">
+        <v>386.98</v>
+      </c>
+      <c r="H398" t="n">
+        <v>392.73</v>
+      </c>
+      <c r="I398" t="n">
+        <v>395.48</v>
+      </c>
+      <c r="J398" t="n">
+        <v>386.46</v>
+      </c>
+      <c r="K398" t="n">
+        <v>381.9545454545454</v>
+      </c>
+      <c r="L398" t="n">
+        <v>389.05</v>
+      </c>
+      <c r="M398" t="n">
+        <v>392.22</v>
+      </c>
+      <c r="N398" t="n">
+        <v>398.37</v>
+      </c>
+      <c r="O398" t="n">
+        <v>402.03</v>
+      </c>
+      <c r="P398" t="n">
+        <v>388.0945454545454</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>383.2745454545454</v>
+      </c>
+      <c r="R398" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22275,7 +22675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B395"/>
+  <dimension ref="A1:B402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26233,6 +26633,76 @@
       </c>
       <c r="B395" t="n">
         <v>-0.72</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2024-11-28 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2025-01-07 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2025-01-23 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>-0.47</v>
       </c>
     </row>
   </sheetData>
@@ -26401,28 +26871,28 @@
         <v>0.0503</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5419869596283323</v>
+        <v>0.5441903441292366</v>
       </c>
       <c r="J2" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K2" t="n">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1814683342614279</v>
+        <v>0.1882163137967665</v>
       </c>
       <c r="M2" t="n">
-        <v>6.730503551150977</v>
+        <v>6.667569799113839</v>
       </c>
       <c r="N2" t="n">
-        <v>71.57029924138698</v>
+        <v>70.50898498854278</v>
       </c>
       <c r="O2" t="n">
-        <v>8.459923122664117</v>
+        <v>8.39696284310838</v>
       </c>
       <c r="P2" t="n">
-        <v>367.8521574715901</v>
+        <v>367.8309950151146</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -26478,28 +26948,28 @@
         <v>0.0454</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8768665768589241</v>
+        <v>0.8808071652234646</v>
       </c>
       <c r="J3" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K3" t="n">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3225758874654411</v>
+        <v>0.3325489805254491</v>
       </c>
       <c r="M3" t="n">
-        <v>7.573499867023415</v>
+        <v>7.513750814739392</v>
       </c>
       <c r="N3" t="n">
-        <v>87.20764437987209</v>
+        <v>85.98985465450025</v>
       </c>
       <c r="O3" t="n">
-        <v>9.338503326543933</v>
+        <v>9.273071478992289</v>
       </c>
       <c r="P3" t="n">
-        <v>362.0266766778567</v>
+        <v>361.9887847934803</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -26555,28 +27025,28 @@
         <v>0.0445</v>
       </c>
       <c r="I4" t="n">
-        <v>0.974731634198937</v>
+        <v>0.9846874004020927</v>
       </c>
       <c r="J4" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3571187791335552</v>
+        <v>0.37035086434498</v>
       </c>
       <c r="M4" t="n">
-        <v>7.775693368030476</v>
+        <v>7.70219677364803</v>
       </c>
       <c r="N4" t="n">
-        <v>92.46932457172775</v>
+        <v>91.10746712696427</v>
       </c>
       <c r="O4" t="n">
-        <v>9.616097159020793</v>
+        <v>9.545023160106227</v>
       </c>
       <c r="P4" t="n">
-        <v>360.5753852076106</v>
+        <v>360.4804440002204</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -26632,28 +27102,28 @@
         <v>0.057</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9373662031896871</v>
+        <v>0.9436103695306496</v>
       </c>
       <c r="J5" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K5" t="n">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3560205877713883</v>
+        <v>0.3680020133976899</v>
       </c>
       <c r="M5" t="n">
-        <v>7.088685123208631</v>
+        <v>7.000730542156706</v>
       </c>
       <c r="N5" t="n">
-        <v>85.30926876217177</v>
+        <v>83.84217664640215</v>
       </c>
       <c r="O5" t="n">
-        <v>9.236301682067978</v>
+        <v>9.156537372085703</v>
       </c>
       <c r="P5" t="n">
-        <v>364.1281645744756</v>
+        <v>364.0684428325158</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -26709,28 +27179,28 @@
         <v>0.0561</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7825454328719166</v>
+        <v>0.7901878928994158</v>
       </c>
       <c r="J6" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K6" t="n">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2846986309953887</v>
+        <v>0.296566525084069</v>
       </c>
       <c r="M6" t="n">
-        <v>7.309419816218647</v>
+        <v>7.224441207859813</v>
       </c>
       <c r="N6" t="n">
-        <v>81.97962290463451</v>
+        <v>80.67098863057129</v>
       </c>
       <c r="O6" t="n">
-        <v>9.054259931360184</v>
+        <v>8.981702991669859</v>
       </c>
       <c r="P6" t="n">
-        <v>364.9462618857085</v>
+        <v>364.8730656306244</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -26786,28 +27256,28 @@
         <v>0.054</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7558989652357144</v>
+        <v>0.7506062935309161</v>
       </c>
       <c r="J7" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K7" t="n">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2582202929836495</v>
+        <v>0.2629978197528524</v>
       </c>
       <c r="M7" t="n">
-        <v>7.420335324583864</v>
+        <v>7.320466537411345</v>
       </c>
       <c r="N7" t="n">
-        <v>87.04546270580164</v>
+        <v>85.5422288456075</v>
       </c>
       <c r="O7" t="n">
-        <v>9.329815791632846</v>
+        <v>9.248904197017477</v>
       </c>
       <c r="P7" t="n">
-        <v>367.9365583040149</v>
+        <v>367.9873781375978</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -26863,28 +27333,28 @@
         <v>0.0464</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4709772267582246</v>
+        <v>0.47653103411322</v>
       </c>
       <c r="J8" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K8" t="n">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1316913180920121</v>
+        <v>0.13783588176172</v>
       </c>
       <c r="M8" t="n">
-        <v>6.888858774813045</v>
+        <v>6.854567900924207</v>
       </c>
       <c r="N8" t="n">
-        <v>77.6032431017334</v>
+        <v>76.7748603181434</v>
       </c>
       <c r="O8" t="n">
-        <v>8.809270293374666</v>
+        <v>8.762126472389188</v>
       </c>
       <c r="P8" t="n">
-        <v>380.0334268213153</v>
+        <v>379.97987675223</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -26940,28 +27410,28 @@
         <v>0.0553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5774743457671354</v>
+        <v>0.598442188535636</v>
       </c>
       <c r="J9" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K9" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1993171092063022</v>
+        <v>0.2151134634644659</v>
       </c>
       <c r="M9" t="n">
-        <v>6.824320188562596</v>
+        <v>6.808759546408107</v>
       </c>
       <c r="N9" t="n">
-        <v>70.97677084725606</v>
+        <v>70.5684844547024</v>
       </c>
       <c r="O9" t="n">
-        <v>8.42477126379441</v>
+        <v>8.400505011884846</v>
       </c>
       <c r="P9" t="n">
-        <v>374.1282052895324</v>
+        <v>373.9267682971677</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -27017,28 +27487,28 @@
         <v>0.056</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7657637700463615</v>
+        <v>0.7865995016456045</v>
       </c>
       <c r="J10" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K10" t="n">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2745625901525142</v>
+        <v>0.2901507474204463</v>
       </c>
       <c r="M10" t="n">
-        <v>7.12629546023877</v>
+        <v>7.109180140008207</v>
       </c>
       <c r="N10" t="n">
-        <v>81.62294934093349</v>
+        <v>81.26095211309372</v>
       </c>
       <c r="O10" t="n">
-        <v>9.034542010579921</v>
+        <v>9.014485682117074</v>
       </c>
       <c r="P10" t="n">
-        <v>362.9630638009085</v>
+        <v>362.760851029422</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -27094,28 +27564,28 @@
         <v>0.0582</v>
       </c>
       <c r="I11" t="n">
-        <v>0.706933566897925</v>
+        <v>0.7281700837093498</v>
       </c>
       <c r="J11" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K11" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2400852655448772</v>
+        <v>0.2557161873977789</v>
       </c>
       <c r="M11" t="n">
-        <v>7.516434667935754</v>
+        <v>7.504824668689762</v>
       </c>
       <c r="N11" t="n">
-        <v>84.58747155625041</v>
+        <v>84.0544972682334</v>
       </c>
       <c r="O11" t="n">
-        <v>9.197144750206469</v>
+        <v>9.168123977577604</v>
       </c>
       <c r="P11" t="n">
-        <v>357.8544042245829</v>
+        <v>357.6510784174633</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -27171,28 +27641,28 @@
         <v>0.0525</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6858398525111866</v>
+        <v>0.7157646960330178</v>
       </c>
       <c r="J12" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K12" t="n">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1957253001280509</v>
+        <v>0.2126230376963195</v>
       </c>
       <c r="M12" t="n">
-        <v>8.442378470099232</v>
+        <v>8.470311797329984</v>
       </c>
       <c r="N12" t="n">
-        <v>103.9180042897154</v>
+        <v>103.8099578121756</v>
       </c>
       <c r="O12" t="n">
-        <v>10.19401806402733</v>
+        <v>10.18871718187209</v>
       </c>
       <c r="P12" t="n">
-        <v>357.2924609182365</v>
+        <v>357.0054002424362</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -27248,28 +27718,28 @@
         <v>0.0532</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6974974489980261</v>
+        <v>0.7249843472335562</v>
       </c>
       <c r="J13" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K13" t="n">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2089609063314951</v>
+        <v>0.2250914286063554</v>
       </c>
       <c r="M13" t="n">
-        <v>8.107950429982965</v>
+        <v>8.117052495019704</v>
       </c>
       <c r="N13" t="n">
-        <v>98.91144735320788</v>
+        <v>98.82039337417788</v>
       </c>
       <c r="O13" t="n">
-        <v>9.945423437602235</v>
+        <v>9.940844701240326</v>
       </c>
       <c r="P13" t="n">
-        <v>359.189913177969</v>
+        <v>358.9241524544933</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -27325,28 +27795,28 @@
         <v>0.0551</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7141867145771159</v>
+        <v>0.735778283500527</v>
       </c>
       <c r="J14" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K14" t="n">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="L14" t="n">
-        <v>0.18782573654701</v>
+        <v>0.2006253730431958</v>
       </c>
       <c r="M14" t="n">
-        <v>8.850098482433939</v>
+        <v>8.811847339998023</v>
       </c>
       <c r="N14" t="n">
-        <v>120.0386796083532</v>
+        <v>119.290973583603</v>
       </c>
       <c r="O14" t="n">
-        <v>10.95621648236074</v>
+        <v>10.92204072431535</v>
       </c>
       <c r="P14" t="n">
-        <v>363.0969545023596</v>
+        <v>362.8883391790728</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -27402,28 +27872,28 @@
         <v>0.054</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5212398719847768</v>
+        <v>0.5511604713096699</v>
       </c>
       <c r="J15" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K15" t="n">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1108300852526074</v>
+        <v>0.1240586528396845</v>
       </c>
       <c r="M15" t="n">
-        <v>8.643824068526559</v>
+        <v>8.64871592724387</v>
       </c>
       <c r="N15" t="n">
-        <v>116.0727534184615</v>
+        <v>116.1086434019687</v>
       </c>
       <c r="O15" t="n">
-        <v>10.77370657751832</v>
+        <v>10.77537207719384</v>
       </c>
       <c r="P15" t="n">
-        <v>367.4086882146739</v>
+        <v>367.114365954223</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -27479,28 +27949,28 @@
         <v>0.0605</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2758865416681204</v>
+        <v>0.2902315737932142</v>
       </c>
       <c r="J16" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K16" t="n">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03488644309237632</v>
+        <v>0.03948458189431503</v>
       </c>
       <c r="M16" t="n">
-        <v>8.447757869349578</v>
+        <v>8.397694174453472</v>
       </c>
       <c r="N16" t="n">
-        <v>110.7812165107719</v>
+        <v>109.6879138986257</v>
       </c>
       <c r="O16" t="n">
-        <v>10.52526562661351</v>
+        <v>10.47319979273888</v>
       </c>
       <c r="P16" t="n">
-        <v>366.7363063428687</v>
+        <v>366.5946810302967</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -27556,28 +28026,28 @@
         <v>0.0612</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02912972369339965</v>
+        <v>0.001758161959026363</v>
       </c>
       <c r="J17" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K17" t="n">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002909888861208909</v>
+        <v>1.080504125727799e-06</v>
       </c>
       <c r="M17" t="n">
-        <v>10.06932136416359</v>
+        <v>10.07619199074578</v>
       </c>
       <c r="N17" t="n">
-        <v>152.5624960215677</v>
+        <v>152.4379273249477</v>
       </c>
       <c r="O17" t="n">
-        <v>12.35161916598661</v>
+        <v>12.34657553028157</v>
       </c>
       <c r="P17" t="n">
-        <v>374.8216755892281</v>
+        <v>375.0905568244854</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -27614,7 +28084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R391"/>
+  <dimension ref="A1:R398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60266,6 +60736,610 @@
         </is>
       </c>
     </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-28 22:00:03+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>-37.74427334119652,176.47050441989535</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>-37.744936882566044,176.4708297115106</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>-37.745553992673514,176.47126270871922</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>-37.74616218898152,176.4716617711454</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>-37.746761195922005,176.47210773957812</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>-37.74736701774846,176.47257492704088</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>-37.747918790542045,176.4731393263331</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>-37.74847558502957,176.47369502412135</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>-37.74910400564995,176.47411908616894</t>
+        </is>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>-37.74969504846976,176.47461370328207</t>
+        </is>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>-37.750271952439476,176.47514318250066</t>
+        </is>
+      </c>
+      <c r="M392" t="inlineStr">
+        <is>
+          <t>-37.75084973549433,176.47567080605972</t>
+        </is>
+      </c>
+      <c r="N392" t="inlineStr">
+        <is>
+          <t>-37.75142438861417,176.47619875815946</t>
+        </is>
+      </c>
+      <c r="O392" t="inlineStr">
+        <is>
+          <t>-37.75199490755924,176.47671760172668</t>
+        </is>
+      </c>
+      <c r="P392" t="inlineStr">
+        <is>
+          <t>-37.752585174036646,176.47722516071357</t>
+        </is>
+      </c>
+      <c r="Q392" t="inlineStr">
+        <is>
+          <t>-37.753191513167,176.47770613430612</t>
+        </is>
+      </c>
+      <c r="R392" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 21:59:59+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>-37.74426175028505,176.47053590640544</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>-37.74489329962435,176.47094810391116</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>-37.745521787105396,176.47134497648102</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>-37.746126398434996,176.4717364043432</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>-37.746714415114916,176.47219285402508</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>-37.747331029396584,176.47263924858174</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>-37.747864929982526,176.47323411061117</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>-37.74844225771081,176.4737531022177</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>-37.74903330668448,176.47423754549013</t>
+        </is>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>-37.74967859773707,176.47464047225702</t>
+        </is>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>-37.750239562558406,176.47519720043206</t>
+        </is>
+      </c>
+      <c r="M393" t="inlineStr">
+        <is>
+          <t>-37.75080574266827,176.4757461742942</t>
+        </is>
+      </c>
+      <c r="N393" t="inlineStr">
+        <is>
+          <t>-37.7513784327809,176.47627765703578</t>
+        </is>
+      </c>
+      <c r="O393" t="inlineStr">
+        <is>
+          <t>-37.7519778057868,176.47674509166492</t>
+        </is>
+      </c>
+      <c r="P393" t="inlineStr">
+        <is>
+          <t>-37.7525816454371,176.47723097553404</t>
+        </is>
+      </c>
+      <c r="Q393" t="inlineStr">
+        <is>
+          <t>-37.75323554837307,176.47762655556525</t>
+        </is>
+      </c>
+      <c r="R393" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 21:59:51+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>-37.744308521983214,176.47040885170227</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>-37.744949150897696,176.47079638469202</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>-37.74558623799644,176.4711803391918</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>-37.74617661688772,176.47163168491977</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>-37.74677974426577,176.47207399208898</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>-37.747376248185084,176.47255842957492</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>-37.747934246623515,176.4731121265386</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>-37.74850052776835,176.47365155740994</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>-37.749119800660246,176.4740926208569</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>-37.749725169726894,176.4745646892903</t>
+        </is>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>-37.750287631955004,176.4751170330995</t>
+        </is>
+      </c>
+      <c r="M394" t="inlineStr">
+        <is>
+          <t>-37.75086781253369,176.47563983654058</t>
+        </is>
+      </c>
+      <c r="N394" t="inlineStr">
+        <is>
+          <t>-37.75142934097802,176.47619025572533</t>
+        </is>
+      </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>-37.752003014241524,176.47670457077743</t>
+        </is>
+      </c>
+      <c r="P394" t="inlineStr">
+        <is>
+          <t>-37.75263413705593,176.47714447387906</t>
+        </is>
+      </c>
+      <c r="Q394" t="inlineStr">
+        <is>
+          <t>-37.75327318650202,176.47755853723</t>
+        </is>
+      </c>
+      <c r="R394" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>-37.74425949941747,176.47054202084448</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>-37.74491654892264,176.47088494760104</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>-37.74555841148022,176.47125142104767</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>-37.74616060656557,176.47166507092427</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>-37.746750077159184,176.4721279694183</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>-37.74733590390147,176.47263053644593</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>-37.74786409168532,176.47323558585174</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>-37.74846677860454,176.47371037071213</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>-37.74907068465147,176.47417491706358</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>-37.74967989015173,176.47463836921375</t>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>-37.75025350594382,176.4751739464876</t>
+        </is>
+      </c>
+      <c r="M395" t="inlineStr">
+        <is>
+          <t>-37.75083160512288,176.4757018669189</t>
+        </is>
+      </c>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t>-37.75141869073249,176.47620854052846</t>
+        </is>
+      </c>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t>-37.75196420210002,176.47676695865206</t>
+        </is>
+      </c>
+      <c r="P395" t="inlineStr">
+        <is>
+          <t>-37.75257959288539,176.47723435795754</t>
+        </is>
+      </c>
+      <c r="Q395" t="inlineStr">
+        <is>
+          <t>-37.753283547159306,176.47753981378182</t>
+        </is>
+      </c>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-07 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>-37.74428048506466,176.47048501368545</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>-37.744900228978835,176.47092928045504</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>-37.74553361041668,176.47131477435715</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>-37.74615120515138,176.47168467548968</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>-37.746745311974145,176.4721366393479</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>-37.747337770732976,176.47262719988296</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>-37.747873050985774,176.47321981921638</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>-37.74847189371391,176.4737014568245</t>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>-37.7490857223778,176.47414972065968</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>-37.74965886586738,176.47467258033865</t>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>-37.7502370126003,176.475201453098</t>
+        </is>
+      </c>
+      <c r="M396" t="inlineStr">
+        <is>
+          <t>-37.75082168674004,176.47571885902943</t>
+        </is>
+      </c>
+      <c r="N396" t="inlineStr">
+        <is>
+          <t>-37.75139270412248,176.47625315542555</t>
+        </is>
+      </c>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t>-37.75194943237875,176.47679069994317</t>
+        </is>
+      </c>
+      <c r="P396" t="inlineStr">
+        <is>
+          <t>-37.752603125161635,176.47719557882948</t>
+        </is>
+      </c>
+      <c r="Q396" t="inlineStr">
+        <is>
+          <t>-37.75327095900714,176.47756256268613</t>
+        </is>
+      </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-23 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>-37.7442812087072,176.47048304792074</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>-37.74490961957487,176.47090377106588</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>-37.74554710570244,176.47128030121354</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>-37.74616954256041,176.47164643687708</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>-37.746762579362326,176.4721052225008</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>-37.74734627518649,176.4726119999829</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr"/>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="inlineStr"/>
+      <c r="M397" t="inlineStr"/>
+      <c r="N397" t="inlineStr"/>
+      <c r="O397" t="inlineStr"/>
+      <c r="P397" t="inlineStr"/>
+      <c r="Q397" t="inlineStr"/>
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>-37.74425543102615,176.4705530725492</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>-37.744893186028364,176.4709484124924</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>-37.74555037004742,176.47127196257503</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>-37.746157069400205,176.4716724469</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>-37.74674474835006,176.47213766482338</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>-37.747340882118614,176.47262163894433</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>-37.747896470902326,176.47317860465995</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>-37.748468044198674,176.47370816521428</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>-37.749095242662435,176.47413376897413</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>-37.749689077315296,176.47462341967147</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>-37.750224371316605,176.47522253545873</t>
+        </is>
+      </c>
+      <c r="M398" t="inlineStr">
+        <is>
+          <t>-37.750791931578014,176.47576983533324</t>
+        </is>
+      </c>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>-37.75134190238527,176.47634037380027</t>
+        </is>
+      </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>-37.75189501757858,176.47687816777483</t>
+        </is>
+      </c>
+      <c r="P398" t="inlineStr">
+        <is>
+          <t>-37.75253015767283,176.47731582270953</t>
+        </is>
+      </c>
+      <c r="Q398" t="inlineStr">
+        <is>
+          <t>-37.75315396855213,176.47777398335174</t>
+        </is>
+      </c>
+      <c r="R398" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0220/nzd0220.xlsx
+++ b/data/nzd0220/nzd0220.xlsx
@@ -26716,7 +26716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26807,35 +26807,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -26894,27 +26899,28 @@
       <c r="P2" t="n">
         <v>367.8309950151146</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (176.46657143903343 -37.745721069654685, 176.47599917304666 -37.74225041734714)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>176.4665714390334</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-37.74572106965469</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>176.4759991730467</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-37.74225041734714</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>176.47128530604</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-37.74398574350091</v>
       </c>
     </row>
@@ -26971,27 +26977,28 @@
       <c r="P3" t="n">
         <v>361.9887847934803</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (176.46692977778656 -37.746372443987106, 176.47635755131333 -37.742901781081265)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>176.4669297777866</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-37.74637244398711</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>176.4763575513133</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-37.74290178108127</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>176.47164366455</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-37.74463711253419</v>
       </c>
     </row>
@@ -27048,27 +27055,28 @@
       <c r="P4" t="n">
         <v>360.4804440002204</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (176.46732983595032 -37.747093506897215, 176.4766501192025 -37.74344479322804)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>176.4673298359503</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-37.74709350689722</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>176.4766501192025</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-37.74344479322804</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>176.4719899775764</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-37.74526915006263</v>
       </c>
     </row>
@@ -27125,27 +27133,28 @@
       <c r="P5" t="n">
         <v>364.0684428325158</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (176.46789158175125 -37.74797008955966, 176.47678579316792 -37.7437047656788)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>176.4678915817512</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-37.74797008955966</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>176.4767857931679</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-37.7437047656788</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>176.4723386874596</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-37.74583742761923</v>
       </c>
     </row>
@@ -27202,27 +27211,28 @@
       <c r="P6" t="n">
         <v>364.8730656306244</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (176.46852108655978 -37.74873239441299, 176.4770638269348 -37.74403702427412)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>176.4685210865598</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-37.74873239441299</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>176.4770638269348</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-37.74403702427412</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>176.4727924567473</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-37.74638470934356</v>
       </c>
     </row>
@@ -27279,27 +27289,28 @@
       <c r="P7" t="n">
         <v>367.9873781375978</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (176.46903491950553 -37.74934757186541, 176.47752780576215 -37.74459564849752)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>176.4690349195055</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-37.74934757186541</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>176.4775278057622</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-37.74459564849752</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>176.4732813626338</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-37.74697161018146</v>
       </c>
     </row>
@@ -27356,27 +27367,28 @@
       <c r="P8" t="n">
         <v>379.97987675223</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (176.4695574286688 -37.74995407108306, 176.4780062578425 -37.745152994055104)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>176.4695574286688</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-37.74995407108306</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>176.4780062578425</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-37.7451529940551</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>176.4737818432557</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-37.74755353256909</v>
       </c>
     </row>
@@ -27433,27 +27445,28 @@
       <c r="P9" t="n">
         <v>373.9267682971677</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (176.47007376795918 -37.7505534809279, 176.4784944045858 -37.745721334660026)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>176.4700737679592</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-37.7505534809279</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>176.4784944045858</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-37.74572133466003</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>176.4742840862725</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-37.74813740779396</v>
       </c>
     </row>
@@ -27510,27 +27523,28 @@
       <c r="P10" t="n">
         <v>362.760851029422</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (176.47063100411623 -37.75118565460723, 176.4789358286477 -37.746229075929364)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>176.4706310041162</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-37.75118565460723</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>176.4789358286477</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-37.74622907592936</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>176.474783416382</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-37.7487073652683</v>
       </c>
     </row>
@@ -27587,27 +27601,28 @@
       <c r="P11" t="n">
         <v>357.6510784174633</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (176.47119853844643 -37.75179371371683, 176.47941429907823 -37.746744660278274)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>176.4711985384464</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-37.75179371371683</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>176.4794142990782</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-37.74674466027827</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>176.4753064187623</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-37.74926918699755</v>
       </c>
     </row>
@@ -27664,27 +27679,28 @@
       <c r="P12" t="n">
         <v>357.0054002424362</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (176.4717022227242 -37.75233509238983, 176.4799930199366 -37.747363719424634)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>176.4717022227242</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-37.75233509238983</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>176.4799930199366</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-37.74736371942463</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>176.4758476213304</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-37.74984940590723</v>
       </c>
     </row>
@@ -27741,27 +27757,28 @@
       <c r="P13" t="n">
         <v>358.9241524544933</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (176.47218659291187 -37.752883382306216, 176.48055752591804 -37.74799713041982)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>176.4721865929119</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-37.75288338230622</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>176.480557525918</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-37.74799713041982</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>176.476372059415</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-37.75044025636302</v>
       </c>
     </row>
@@ -27818,27 +27835,28 @@
       <c r="P14" t="n">
         <v>362.8883391790728</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (176.47269821726255 -37.75346322395114, 176.48107542080794 -37.74858370320264)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>176.4726982172625</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-37.75346322395114</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>176.4810754208079</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-37.74858370320264</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>176.4768868190353</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-37.75102346357689</v>
       </c>
     </row>
@@ -27895,27 +27913,28 @@
       <c r="P15" t="n">
         <v>367.114365954223</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (176.4732898268292 -37.75412725290781, 176.4814677224461 -37.74903960313543)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>176.4732898268292</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-37.75412725290781</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>176.4814677224461</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-37.74903960313543</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>176.4773787746377</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-37.75158342802162</v>
       </c>
     </row>
@@ -27972,27 +27991,28 @@
       <c r="P16" t="n">
         <v>366.5946810302967</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (176.47381943011885 -37.75465176517682, 176.48207400986217 -37.749642543928395)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>176.4738194301189</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-37.75465176517682</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>176.4820740098622</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-37.7496425439284</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>176.4779467199905</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-37.7521471545526</v>
       </c>
     </row>
@@ -28049,27 +28069,28 @@
       <c r="P17" t="n">
         <v>375.0905568244854</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (176.47420847702 -37.75512685823818, 176.4827325920121 -37.75040989454737)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>176.47420847702</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-37.75512685823818</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>176.4827325920121</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-37.75040989454737</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>176.478470534516</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-37.75276837639277</v>
       </c>
     </row>

--- a/data/nzd0220/nzd0220.xlsx
+++ b/data/nzd0220/nzd0220.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R398"/>
+  <dimension ref="A1:R403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22664,6 +22664,306 @@
         </is>
       </c>
     </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:59:42+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>392.1833333333333</v>
+      </c>
+      <c r="C399" t="n">
+        <v>399.02</v>
+      </c>
+      <c r="D399" t="n">
+        <v>400.73</v>
+      </c>
+      <c r="E399" t="n">
+        <v>401.5</v>
+      </c>
+      <c r="F399" t="n">
+        <v>400.26</v>
+      </c>
+      <c r="G399" t="n">
+        <v>396.2</v>
+      </c>
+      <c r="H399" t="n">
+        <v>401.8</v>
+      </c>
+      <c r="I399" t="n">
+        <v>402.64</v>
+      </c>
+      <c r="J399" t="n">
+        <v>401.42</v>
+      </c>
+      <c r="K399" t="n">
+        <v>386.6881818181818</v>
+      </c>
+      <c r="L399" t="n">
+        <v>392.62</v>
+      </c>
+      <c r="M399" t="n">
+        <v>395.93</v>
+      </c>
+      <c r="N399" t="n">
+        <v>399.38</v>
+      </c>
+      <c r="O399" t="n">
+        <v>401.07</v>
+      </c>
+      <c r="P399" t="n">
+        <v>384.6581818181818</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>368.6181818181818</v>
+      </c>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-28 21:59:42+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>390.5911111111111</v>
+      </c>
+      <c r="C400" t="n">
+        <v>395.06</v>
+      </c>
+      <c r="D400" t="n">
+        <v>393.36</v>
+      </c>
+      <c r="E400" t="n">
+        <v>395.09</v>
+      </c>
+      <c r="F400" t="n">
+        <v>388.21</v>
+      </c>
+      <c r="G400" t="n">
+        <v>387.69</v>
+      </c>
+      <c r="H400" t="n">
+        <v>391.95</v>
+      </c>
+      <c r="I400" t="n">
+        <v>395.2</v>
+      </c>
+      <c r="J400" t="n">
+        <v>387.29</v>
+      </c>
+      <c r="K400" t="n">
+        <v>389.1636363636364</v>
+      </c>
+      <c r="L400" t="n">
+        <v>393.14</v>
+      </c>
+      <c r="M400" t="n">
+        <v>395</v>
+      </c>
+      <c r="N400" t="n">
+        <v>401.01</v>
+      </c>
+      <c r="O400" t="n">
+        <v>390.6</v>
+      </c>
+      <c r="P400" t="n">
+        <v>385.4836363636364</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>354.5436363636364</v>
+      </c>
+      <c r="R400" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:29+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>392.8544444444445</v>
+      </c>
+      <c r="C401" t="n">
+        <v>390.23</v>
+      </c>
+      <c r="D401" t="n">
+        <v>390.15</v>
+      </c>
+      <c r="E401" t="n">
+        <v>394.96</v>
+      </c>
+      <c r="F401" t="n">
+        <v>391.31</v>
+      </c>
+      <c r="G401" t="n">
+        <v>394.6</v>
+      </c>
+      <c r="H401" t="n">
+        <v>398.6</v>
+      </c>
+      <c r="I401" t="n">
+        <v>399.63</v>
+      </c>
+      <c r="J401" t="n">
+        <v>393.66</v>
+      </c>
+      <c r="K401" t="n">
+        <v>387.6172727272727</v>
+      </c>
+      <c r="L401" t="n">
+        <v>388.38</v>
+      </c>
+      <c r="M401" t="n">
+        <v>391.93</v>
+      </c>
+      <c r="N401" t="n">
+        <v>399.87</v>
+      </c>
+      <c r="O401" t="n">
+        <v>397.5</v>
+      </c>
+      <c r="P401" t="n">
+        <v>368.8272727272728</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>352.7872727272728</v>
+      </c>
+      <c r="R401" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 21:59:43+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>365.5966666666667</v>
+      </c>
+      <c r="C402" t="n">
+        <v>370.66</v>
+      </c>
+      <c r="D402" t="n">
+        <v>379.65</v>
+      </c>
+      <c r="E402" t="n">
+        <v>378.74</v>
+      </c>
+      <c r="F402" t="n">
+        <v>384.21</v>
+      </c>
+      <c r="G402" t="n">
+        <v>378.41</v>
+      </c>
+      <c r="H402" t="n">
+        <v>384.94</v>
+      </c>
+      <c r="I402" t="n">
+        <v>388.17</v>
+      </c>
+      <c r="J402" t="n">
+        <v>387.84</v>
+      </c>
+      <c r="K402" t="n">
+        <v>377.3981818181818</v>
+      </c>
+      <c r="L402" t="n">
+        <v>382.82</v>
+      </c>
+      <c r="M402" t="n">
+        <v>387.07</v>
+      </c>
+      <c r="N402" t="n">
+        <v>387.98</v>
+      </c>
+      <c r="O402" t="n">
+        <v>388.42</v>
+      </c>
+      <c r="P402" t="n">
+        <v>377.2181818181818</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>351.6081818181818</v>
+      </c>
+      <c r="R402" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-21 21:59:16+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>380.35</v>
+      </c>
+      <c r="C403" t="n">
+        <v>385.2</v>
+      </c>
+      <c r="D403" t="n">
+        <v>385.59</v>
+      </c>
+      <c r="E403" t="n">
+        <v>385.49</v>
+      </c>
+      <c r="F403" t="n">
+        <v>378.83</v>
+      </c>
+      <c r="G403" t="n">
+        <v>378.39</v>
+      </c>
+      <c r="H403" t="n">
+        <v>389.61</v>
+      </c>
+      <c r="I403" t="n">
+        <v>386.6</v>
+      </c>
+      <c r="J403" t="n">
+        <v>386.58</v>
+      </c>
+      <c r="K403" t="n">
+        <v>381.3636363636364</v>
+      </c>
+      <c r="L403" t="n">
+        <v>381.43</v>
+      </c>
+      <c r="M403" t="n">
+        <v>382.42</v>
+      </c>
+      <c r="N403" t="n">
+        <v>388.1</v>
+      </c>
+      <c r="O403" t="n">
+        <v>380.08</v>
+      </c>
+      <c r="P403" t="n">
+        <v>369.5036363636364</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>364.9836363636364</v>
+      </c>
+      <c r="R403" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22675,7 +22975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B402"/>
+  <dimension ref="A1:B407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26703,6 +27003,56 @@
       </c>
       <c r="B402" t="n">
         <v>-0.47</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2025-03-28 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2025-04-05 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2025-04-21 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -26876,28 +27226,28 @@
         <v>0.0503</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5441903441292366</v>
+        <v>0.5512209295080952</v>
       </c>
       <c r="J2" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="K2" t="n">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1882163137967665</v>
+        <v>0.1931017274578979</v>
       </c>
       <c r="M2" t="n">
-        <v>6.667569799113839</v>
+        <v>6.711770471157077</v>
       </c>
       <c r="N2" t="n">
-        <v>70.50898498854278</v>
+        <v>71.15171472139599</v>
       </c>
       <c r="O2" t="n">
-        <v>8.39696284310838</v>
+        <v>8.435147581482852</v>
       </c>
       <c r="P2" t="n">
-        <v>367.8309950151146</v>
+        <v>367.7635772703397</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26954,28 +27304,28 @@
         <v>0.0454</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8808071652234646</v>
+        <v>0.8906194842033086</v>
       </c>
       <c r="J3" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="K3" t="n">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3325489805254491</v>
+        <v>0.3400255639698089</v>
       </c>
       <c r="M3" t="n">
-        <v>7.513750814739392</v>
+        <v>7.534128984902173</v>
       </c>
       <c r="N3" t="n">
-        <v>85.98985465450025</v>
+        <v>86.3385257225724</v>
       </c>
       <c r="O3" t="n">
-        <v>9.273071478992289</v>
+        <v>9.291852652865972</v>
       </c>
       <c r="P3" t="n">
-        <v>361.9887847934803</v>
+        <v>361.8947736786402</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27032,28 +27382,28 @@
         <v>0.0445</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9846874004020927</v>
+        <v>0.9965949736072502</v>
       </c>
       <c r="J4" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="K4" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L4" t="n">
-        <v>0.37035086434498</v>
+        <v>0.3804105841360632</v>
       </c>
       <c r="M4" t="n">
-        <v>7.70219677364803</v>
+        <v>7.686186442180654</v>
       </c>
       <c r="N4" t="n">
-        <v>91.10746712696427</v>
+        <v>90.7758847636934</v>
       </c>
       <c r="O4" t="n">
-        <v>9.545023160106227</v>
+        <v>9.527637942517201</v>
       </c>
       <c r="P4" t="n">
-        <v>360.4804440002204</v>
+        <v>360.3658673016245</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27110,28 +27460,28 @@
         <v>0.057</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9436103695306496</v>
+        <v>0.9516537471037441</v>
       </c>
       <c r="J5" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="K5" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3680020133976899</v>
+        <v>0.3758105371383549</v>
       </c>
       <c r="M5" t="n">
-        <v>7.000730542156706</v>
+        <v>7.016446268932224</v>
       </c>
       <c r="N5" t="n">
-        <v>83.84217664640215</v>
+        <v>83.70111058434982</v>
       </c>
       <c r="O5" t="n">
-        <v>9.156537372085703</v>
+        <v>9.148831104810593</v>
       </c>
       <c r="P5" t="n">
-        <v>364.0684428325158</v>
+        <v>363.9908135953357</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27188,28 +27538,28 @@
         <v>0.0561</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7901878928994158</v>
+        <v>0.7997138232766728</v>
       </c>
       <c r="J6" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="K6" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L6" t="n">
-        <v>0.296566525084069</v>
+        <v>0.3054418032303365</v>
       </c>
       <c r="M6" t="n">
-        <v>7.224441207859813</v>
+        <v>7.213991432488717</v>
       </c>
       <c r="N6" t="n">
-        <v>80.67098863057129</v>
+        <v>80.43540332671006</v>
       </c>
       <c r="O6" t="n">
-        <v>8.981702991669859</v>
+        <v>8.968578668145252</v>
       </c>
       <c r="P6" t="n">
-        <v>364.8730656306244</v>
+        <v>364.7810804748669</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27266,28 +27616,28 @@
         <v>0.054</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7506062935309161</v>
+        <v>0.7503333781026428</v>
       </c>
       <c r="J7" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="K7" t="n">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2629978197528524</v>
+        <v>0.2666158834368786</v>
       </c>
       <c r="M7" t="n">
-        <v>7.320466537411345</v>
+        <v>7.315134144228098</v>
       </c>
       <c r="N7" t="n">
-        <v>85.5422288456075</v>
+        <v>85.16668148909649</v>
       </c>
       <c r="O7" t="n">
-        <v>9.248904197017477</v>
+        <v>9.228579603010232</v>
       </c>
       <c r="P7" t="n">
-        <v>367.9873781375978</v>
+        <v>367.9904072289053</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27344,28 +27694,28 @@
         <v>0.0464</v>
       </c>
       <c r="I8" t="n">
-        <v>0.47653103411322</v>
+        <v>0.4798475143480364</v>
       </c>
       <c r="J8" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="K8" t="n">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L8" t="n">
-        <v>0.13783588176172</v>
+        <v>0.1421808585943277</v>
       </c>
       <c r="M8" t="n">
-        <v>6.854567900924207</v>
+        <v>6.83118349706743</v>
       </c>
       <c r="N8" t="n">
-        <v>76.7748603181434</v>
+        <v>76.24019777469898</v>
       </c>
       <c r="O8" t="n">
-        <v>8.762126472389188</v>
+        <v>8.731563306458872</v>
       </c>
       <c r="P8" t="n">
-        <v>379.97987675223</v>
+        <v>379.9478082561128</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27422,28 +27772,28 @@
         <v>0.0553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.598442188535636</v>
+        <v>0.6128082748467079</v>
       </c>
       <c r="J9" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="K9" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2151134634644659</v>
+        <v>0.2261265372769216</v>
       </c>
       <c r="M9" t="n">
-        <v>6.808759546408107</v>
+        <v>6.804303956671447</v>
       </c>
       <c r="N9" t="n">
-        <v>70.5684844547024</v>
+        <v>70.50125946036452</v>
       </c>
       <c r="O9" t="n">
-        <v>8.400505011884846</v>
+        <v>8.396502811311654</v>
       </c>
       <c r="P9" t="n">
-        <v>373.9267682971677</v>
+        <v>373.7872858781267</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27500,28 +27850,28 @@
         <v>0.056</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7865995016456045</v>
+        <v>0.8103945260269444</v>
       </c>
       <c r="J10" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="K10" t="n">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2901507474204463</v>
+        <v>0.305069895545983</v>
       </c>
       <c r="M10" t="n">
-        <v>7.109180140008207</v>
+        <v>7.128177727828667</v>
       </c>
       <c r="N10" t="n">
-        <v>81.26095211309372</v>
+        <v>81.5578181050946</v>
       </c>
       <c r="O10" t="n">
-        <v>9.014485682117074</v>
+        <v>9.030936723568303</v>
       </c>
       <c r="P10" t="n">
-        <v>362.760851029422</v>
+        <v>362.527044029129</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27578,28 +27928,28 @@
         <v>0.0582</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7281700837093498</v>
+        <v>0.7501309273868395</v>
       </c>
       <c r="J11" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="K11" t="n">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2557161873977789</v>
+        <v>0.2701489822146453</v>
       </c>
       <c r="M11" t="n">
-        <v>7.504824668689762</v>
+        <v>7.515064741192106</v>
       </c>
       <c r="N11" t="n">
-        <v>84.0544972682334</v>
+        <v>84.05661123367358</v>
       </c>
       <c r="O11" t="n">
-        <v>9.168123977577604</v>
+        <v>9.168239265730012</v>
       </c>
       <c r="P11" t="n">
-        <v>357.6510784174633</v>
+        <v>357.4382878103429</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27656,28 +28006,28 @@
         <v>0.0525</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7157646960330178</v>
+        <v>0.7483966187812749</v>
       </c>
       <c r="J12" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="K12" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2126230376963195</v>
+        <v>0.2288998091786331</v>
       </c>
       <c r="M12" t="n">
-        <v>8.470311797329984</v>
+        <v>8.535231511906733</v>
       </c>
       <c r="N12" t="n">
-        <v>103.8099578121756</v>
+        <v>104.7497835496773</v>
       </c>
       <c r="O12" t="n">
-        <v>10.18871718187209</v>
+        <v>10.23473417093367</v>
       </c>
       <c r="P12" t="n">
-        <v>357.0054002424362</v>
+        <v>356.6887943485769</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27734,28 +28084,28 @@
         <v>0.0532</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7249843472335562</v>
+        <v>0.7588725333041079</v>
       </c>
       <c r="J13" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="K13" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2250914286063554</v>
+        <v>0.2416500992012083</v>
       </c>
       <c r="M13" t="n">
-        <v>8.117052495019704</v>
+        <v>8.185272740799261</v>
       </c>
       <c r="N13" t="n">
-        <v>98.82039337417788</v>
+        <v>100.0761468314306</v>
       </c>
       <c r="O13" t="n">
-        <v>9.940844701240326</v>
+        <v>10.00380661705486</v>
       </c>
       <c r="P13" t="n">
-        <v>358.9241524544933</v>
+        <v>358.5927977924284</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27812,28 +28162,28 @@
         <v>0.0551</v>
       </c>
       <c r="I14" t="n">
-        <v>0.735778283500527</v>
+        <v>0.771045513821179</v>
       </c>
       <c r="J14" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="K14" t="n">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2006253730431958</v>
+        <v>0.2164357964017231</v>
       </c>
       <c r="M14" t="n">
-        <v>8.811847339998023</v>
+        <v>8.877526692308388</v>
       </c>
       <c r="N14" t="n">
-        <v>119.290973583603</v>
+        <v>120.6161462607309</v>
       </c>
       <c r="O14" t="n">
-        <v>10.92204072431535</v>
+        <v>10.98253824308073</v>
       </c>
       <c r="P14" t="n">
-        <v>362.8883391790728</v>
+        <v>362.5440490059739</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27890,28 +28240,28 @@
         <v>0.054</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5511604713096699</v>
+        <v>0.5790656444774661</v>
       </c>
       <c r="J15" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="K15" t="n">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1240586528396845</v>
+        <v>0.1361910725971023</v>
       </c>
       <c r="M15" t="n">
-        <v>8.64871592724387</v>
+        <v>8.677723899086157</v>
       </c>
       <c r="N15" t="n">
-        <v>116.1086434019687</v>
+        <v>116.7019719280284</v>
       </c>
       <c r="O15" t="n">
-        <v>10.77537207719384</v>
+        <v>10.8028686897522</v>
       </c>
       <c r="P15" t="n">
-        <v>367.114365954223</v>
+        <v>366.837257484359</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27968,28 +28318,28 @@
         <v>0.0605</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2902315737932142</v>
+        <v>0.2987942549853794</v>
       </c>
       <c r="J16" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="K16" t="n">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03948458189431503</v>
+        <v>0.04259170692490466</v>
       </c>
       <c r="M16" t="n">
-        <v>8.397694174453472</v>
+        <v>8.375750402309073</v>
       </c>
       <c r="N16" t="n">
-        <v>109.6879138986257</v>
+        <v>108.9678733536123</v>
       </c>
       <c r="O16" t="n">
-        <v>10.47319979273888</v>
+        <v>10.43876780820477</v>
       </c>
       <c r="P16" t="n">
-        <v>366.5946810302967</v>
+        <v>366.5096504232969</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28046,28 +28396,28 @@
         <v>0.0612</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001758161959026363</v>
+        <v>-0.04507882734403458</v>
       </c>
       <c r="J17" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="K17" t="n">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="L17" t="n">
-        <v>1.080504125727799e-06</v>
+        <v>0.0007093573667650288</v>
       </c>
       <c r="M17" t="n">
-        <v>10.07619199074578</v>
+        <v>10.15844442714271</v>
       </c>
       <c r="N17" t="n">
-        <v>152.4379273249477</v>
+        <v>154.8113589904152</v>
       </c>
       <c r="O17" t="n">
-        <v>12.34657553028157</v>
+        <v>12.44232128625584</v>
       </c>
       <c r="P17" t="n">
-        <v>375.0905568244854</v>
+        <v>375.5580622698552</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28105,7 +28455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R398"/>
+  <dimension ref="A1:R403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61361,6 +61711,466 @@
         </is>
       </c>
     </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:59:42+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>-37.74423612824196,176.47060550812776</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>-37.74486160631107,176.47103419803227</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>-37.74549829969771,176.47140497393622</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>-37.746101498613974,176.4717883272653</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>-37.74668157116284,176.4722526111998</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>-37.747293070465986,176.47270709198216</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>-37.74784894993925,176.4732622323787</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>-37.74843028729086,176.4737739625336</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>-37.74901432018017,176.4742693581684</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>-37.74966299358083,176.47466586364567</t>
+        </is>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>-37.750205002476086,176.4752548376024</t>
+        </is>
+      </c>
+      <c r="M399" t="inlineStr">
+        <is>
+          <t>-37.750772148116816,176.4758037281573</t>
+        </is>
+      </c>
+      <c r="N399" t="inlineStr">
+        <is>
+          <t>-37.75133652400082,176.4763496076043</t>
+        </is>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>-37.75190034801061,176.47686959950317</t>
+        </is>
+      </c>
+      <c r="P399" t="inlineStr">
+        <is>
+          <t>-37.75254894375545,176.47728486497022</t>
+        </is>
+      </c>
+      <c r="Q399" t="inlineStr">
+        <is>
+          <t>-37.753229413396745,176.47763764247105</t>
+        </is>
+      </c>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-28 21:59:42+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>-37.74424215720895,176.4705891305842</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>-37.74487660100435,176.47099346533946</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>-37.74552763904826,176.47133002795633</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>-37.74613133185494,176.47172611680674</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>-37.74674331367056,176.4721402751245</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>-37.74733720031225,176.47262821938835</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>-37.74790055759783,176.4731714128554</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>-37.74846952072511,176.47370559213337</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>-37.749090752982994,176.47414129164451</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>-37.74964935308957,176.47468805970462</t>
+        </is>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>-37.750202181243736,176.4752595426751</t>
+        </is>
+      </c>
+      <c r="M400" t="inlineStr">
+        <is>
+          <t>-37.75077710731412,176.47579523211417</t>
+        </is>
+      </c>
+      <c r="N400" t="inlineStr">
+        <is>
+          <t>-37.751327844032446,176.47636450968122</t>
+        </is>
+      </c>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>-37.751958482997935,176.47677615170952</t>
+        </is>
+      </c>
+      <c r="P400" t="inlineStr">
+        <is>
+          <t>-37.752544431120405,176.477292301381</t>
+        </is>
+      </c>
+      <c r="Q400" t="inlineStr">
+        <is>
+          <t>-37.75330186314744,176.47750671368908</t>
+        </is>
+      </c>
+      <c r="R400" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:29+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>-37.74423358707168,176.47061241115296</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>-37.74489488996826,176.470943783774</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>-37.74554041777441,176.47129738525095</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>-37.74613193689695,176.4717248551276</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>-37.74672742971535,176.47216917487998</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>-37.74730136750306,176.47269226282967</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>-37.747865715886135,176.4732327275731</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>-37.74844615996152,176.47374630193704</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>-37.74905629603102,176.4741990258432</t>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>-37.74965787401386,176.47467419430114</t>
+        </is>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>-37.75022800636421,176.47521647314971</t>
+        </is>
+      </c>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t>-37.75079347799374,176.47576718602815</t>
+        </is>
+      </c>
+      <c r="N401" t="inlineStr">
+        <is>
+          <t>-37.751333914685354,176.47635408737014</t>
+        </is>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>-37.75192017054968,176.4768377362321</t>
+        </is>
+      </c>
+      <c r="P401" t="inlineStr">
+        <is>
+          <t>-37.752635488855994,176.47714224622638</t>
+        </is>
+      </c>
+      <c r="Q401" t="inlineStr">
+        <is>
+          <t>-37.753310904148165,176.47749037505773</t>
+        </is>
+      </c>
+      <c r="R401" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 21:59:43+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>-37.74433679866613,176.47033203821215</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>-37.7449689922547,176.47074248573864</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>-37.74558221728629,176.47119060996408</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>-37.74620742742473,176.47156743622978</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>-37.74676380908701,176.47210298509864</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>-37.74738532305048,176.472542210152</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>-37.74793728544564,176.47310677878104</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>-37.74850659206837,176.47364098938888</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>-37.74908777789398,176.4741462765461</t>
+        </is>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>-37.74971418421152,176.47458256517788</t>
+        </is>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>-37.75025817182282,176.47516616501002</t>
+        </is>
+      </c>
+      <c r="M402" t="inlineStr">
+        <is>
+          <t>-37.75081939378024,176.47572278731238</t>
+        </is>
+      </c>
+      <c r="N402" t="inlineStr">
+        <is>
+          <t>-37.75139723047986,176.47624538439044</t>
+        </is>
+      </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>-37.75197058750447,176.47675669455708</t>
+        </is>
+      </c>
+      <c r="P402" t="inlineStr">
+        <is>
+          <t>-37.75258961708982,176.47721783895292</t>
+        </is>
+      </c>
+      <c r="Q402" t="inlineStr">
+        <is>
+          <t>-37.753316973597244,176.47747940652286</t>
+        </is>
+      </c>
+      <c r="R402" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-21 21:59:16+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>-37.74428093523764,176.47048379079695</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>-37.74491393621808,176.47089204497348</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>-37.74555857071649,176.47125101428472</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>-37.74617601184662,176.47163294660047</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>-37.74679137540499,176.47205282998064</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>-37.74738542676323,176.47254202478712</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>-37.74791281768188,176.473149837437</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>-37.74851487115481,176.47362656173996</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>-37.74909459355218,176.4741348565892</t>
+        </is>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>-37.74969233339794,176.47461812130496</t>
+        </is>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>-37.750265713184405,176.47515358796858</t>
+        </is>
+      </c>
+      <c r="M403" t="inlineStr">
+        <is>
+          <t>-37.750844189734444,176.47568030703005</t>
+        </is>
+      </c>
+      <c r="N403" t="inlineStr">
+        <is>
+          <t>-37.751396591464726,176.4762464814778</t>
+        </is>
+      </c>
+      <c r="O403" t="inlineStr">
+        <is>
+          <t>-37.752016895543775,176.47668225750144</t>
+        </is>
+      </c>
+      <c r="P403" t="inlineStr">
+        <is>
+          <t>-37.75263179128515,176.47714833951142</t>
+        </is>
+      </c>
+      <c r="Q403" t="inlineStr">
+        <is>
+          <t>-37.75324812249775,176.47760383205366</t>
+        </is>
+      </c>
+      <c r="R403" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0220/nzd0220.xlsx
+++ b/data/nzd0220/nzd0220.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R403"/>
+  <dimension ref="A1:R404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22964,6 +22964,66 @@
         </is>
       </c>
     </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>388.2322222222222</v>
+      </c>
+      <c r="C404" t="n">
+        <v>390.54</v>
+      </c>
+      <c r="D404" t="n">
+        <v>393.8</v>
+      </c>
+      <c r="E404" t="n">
+        <v>402.14</v>
+      </c>
+      <c r="F404" t="n">
+        <v>392.88</v>
+      </c>
+      <c r="G404" t="n">
+        <v>389.34</v>
+      </c>
+      <c r="H404" t="n">
+        <v>400.39</v>
+      </c>
+      <c r="I404" t="n">
+        <v>396.73</v>
+      </c>
+      <c r="J404" t="n">
+        <v>395.51</v>
+      </c>
+      <c r="K404" t="n">
+        <v>384.3736363636364</v>
+      </c>
+      <c r="L404" t="n">
+        <v>389.06</v>
+      </c>
+      <c r="M404" t="n">
+        <v>392.27</v>
+      </c>
+      <c r="N404" t="n">
+        <v>395.79</v>
+      </c>
+      <c r="O404" t="n">
+        <v>390.41</v>
+      </c>
+      <c r="P404" t="n">
+        <v>388.8036363636364</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>385.3936363636364</v>
+      </c>
+      <c r="R404" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22975,7 +23035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B407"/>
+  <dimension ref="A1:B408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27053,6 +27113,16 @@
       </c>
       <c r="B407" t="n">
         <v>-0.09</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
@@ -27226,28 +27296,28 @@
         <v>0.0503</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5512209295080952</v>
+        <v>0.5546914298089024</v>
       </c>
       <c r="J2" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K2" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1931017274578979</v>
+        <v>0.1957305653016667</v>
       </c>
       <c r="M2" t="n">
-        <v>6.711770471157077</v>
+        <v>6.71145100193027</v>
       </c>
       <c r="N2" t="n">
-        <v>71.15171472139599</v>
+        <v>71.0613394890928</v>
       </c>
       <c r="O2" t="n">
-        <v>8.435147581482852</v>
+        <v>8.429788816399425</v>
       </c>
       <c r="P2" t="n">
-        <v>367.7635772703397</v>
+        <v>367.7299016793262</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27304,28 +27374,28 @@
         <v>0.0454</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8906194842033086</v>
+        <v>0.8938480482011719</v>
       </c>
       <c r="J3" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K3" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3400255639698089</v>
+        <v>0.3427343230325132</v>
       </c>
       <c r="M3" t="n">
-        <v>7.534128984902173</v>
+        <v>7.528007615817572</v>
       </c>
       <c r="N3" t="n">
-        <v>86.3385257225724</v>
+        <v>86.18430657191429</v>
       </c>
       <c r="O3" t="n">
-        <v>9.291852652865972</v>
+        <v>9.283550321504929</v>
       </c>
       <c r="P3" t="n">
-        <v>361.8947736786402</v>
+        <v>361.863503238775</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27382,28 +27452,28 @@
         <v>0.0445</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9965949736072502</v>
+        <v>1.001007644861016</v>
       </c>
       <c r="J4" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K4" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3804105841360632</v>
+        <v>0.3834257233128113</v>
       </c>
       <c r="M4" t="n">
-        <v>7.686186442180654</v>
+        <v>7.686132500461328</v>
       </c>
       <c r="N4" t="n">
-        <v>90.7758847636934</v>
+        <v>90.68983890527363</v>
       </c>
       <c r="O4" t="n">
-        <v>9.527637942517201</v>
+        <v>9.523121279563419</v>
       </c>
       <c r="P4" t="n">
-        <v>360.3658673016245</v>
+        <v>360.322993960475</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27460,28 +27530,28 @@
         <v>0.057</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9516537471037441</v>
+        <v>0.9590796275957925</v>
       </c>
       <c r="J5" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K5" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3758105371383549</v>
+        <v>0.3793185941678685</v>
       </c>
       <c r="M5" t="n">
-        <v>7.016446268932224</v>
+        <v>7.038858495883226</v>
       </c>
       <c r="N5" t="n">
-        <v>83.70111058434982</v>
+        <v>83.99675202958602</v>
       </c>
       <c r="O5" t="n">
-        <v>9.148831104810593</v>
+        <v>9.164974196885991</v>
       </c>
       <c r="P5" t="n">
-        <v>363.9908135953357</v>
+        <v>363.9183257749287</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27538,28 +27608,28 @@
         <v>0.0561</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7997138232766728</v>
+        <v>0.8038571269254831</v>
       </c>
       <c r="J6" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K6" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3054418032303365</v>
+        <v>0.3084536188852314</v>
       </c>
       <c r="M6" t="n">
-        <v>7.213991432488717</v>
+        <v>7.215750937519955</v>
       </c>
       <c r="N6" t="n">
-        <v>80.43540332671006</v>
+        <v>80.36997566229333</v>
       </c>
       <c r="O6" t="n">
-        <v>8.968578668145252</v>
+        <v>8.964930321106424</v>
       </c>
       <c r="P6" t="n">
-        <v>364.7810804748669</v>
+        <v>364.7406514678519</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27616,28 +27686,28 @@
         <v>0.054</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7503333781026428</v>
+        <v>0.7514687047738905</v>
       </c>
       <c r="J7" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K7" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2666158834368786</v>
+        <v>0.2683003545229691</v>
       </c>
       <c r="M7" t="n">
-        <v>7.315134144228098</v>
+        <v>7.300547243826324</v>
       </c>
       <c r="N7" t="n">
-        <v>85.16668148909649</v>
+        <v>84.94250175336109</v>
       </c>
       <c r="O7" t="n">
-        <v>9.228579603010232</v>
+        <v>9.216425649532528</v>
       </c>
       <c r="P7" t="n">
-        <v>367.9904072289053</v>
+        <v>367.9792705964672</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27694,28 +27764,28 @@
         <v>0.0464</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4798475143480364</v>
+        <v>0.4842704128970039</v>
       </c>
       <c r="J8" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K8" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1421808585943277</v>
+        <v>0.1448522700119568</v>
       </c>
       <c r="M8" t="n">
-        <v>6.83118349706743</v>
+        <v>6.834351967112073</v>
       </c>
       <c r="N8" t="n">
-        <v>76.24019777469898</v>
+        <v>76.21081289848132</v>
       </c>
       <c r="O8" t="n">
-        <v>8.731563306458872</v>
+        <v>8.729880463012154</v>
       </c>
       <c r="P8" t="n">
-        <v>379.9478082561128</v>
+        <v>379.9044085484654</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27772,28 +27842,28 @@
         <v>0.0553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6128082748467079</v>
+        <v>0.616791967255173</v>
       </c>
       <c r="J9" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K9" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2261265372769216</v>
+        <v>0.2290773923957604</v>
       </c>
       <c r="M9" t="n">
-        <v>6.804303956671447</v>
+        <v>6.804471749827234</v>
       </c>
       <c r="N9" t="n">
-        <v>70.50125946036452</v>
+        <v>70.44868452574262</v>
       </c>
       <c r="O9" t="n">
-        <v>8.396502811311654</v>
+        <v>8.393371463586169</v>
       </c>
       <c r="P9" t="n">
-        <v>373.7872858781267</v>
+        <v>373.7482894391375</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27850,28 +27920,28 @@
         <v>0.056</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8103945260269444</v>
+        <v>0.8172407237523823</v>
       </c>
       <c r="J10" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K10" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L10" t="n">
-        <v>0.305069895545983</v>
+        <v>0.3087915028639044</v>
       </c>
       <c r="M10" t="n">
-        <v>7.128177727828667</v>
+        <v>7.142799383771395</v>
       </c>
       <c r="N10" t="n">
-        <v>81.5578181050946</v>
+        <v>81.75068598006008</v>
       </c>
       <c r="O10" t="n">
-        <v>9.030936723568303</v>
+        <v>9.041608594716987</v>
       </c>
       <c r="P10" t="n">
-        <v>362.527044029129</v>
+        <v>362.4592875880592</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27928,28 +27998,28 @@
         <v>0.0582</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7501309273868395</v>
+        <v>0.7542675570441504</v>
       </c>
       <c r="J11" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K11" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2701489822146453</v>
+        <v>0.2730772237537306</v>
       </c>
       <c r="M11" t="n">
-        <v>7.515064741192106</v>
+        <v>7.515577713103943</v>
       </c>
       <c r="N11" t="n">
-        <v>84.05661123367358</v>
+        <v>83.98674021865759</v>
       </c>
       <c r="O11" t="n">
-        <v>9.168239265730012</v>
+        <v>9.164427980984824</v>
       </c>
       <c r="P11" t="n">
-        <v>357.4382878103429</v>
+        <v>357.3979375588258</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28006,28 +28076,28 @@
         <v>0.0525</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7483966187812749</v>
+        <v>0.755361113473335</v>
       </c>
       <c r="J12" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K12" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2288998091786331</v>
+        <v>0.2323762755788011</v>
       </c>
       <c r="M12" t="n">
-        <v>8.535231511906733</v>
+        <v>8.550280034368095</v>
       </c>
       <c r="N12" t="n">
-        <v>104.7497835496773</v>
+        <v>104.9376988755495</v>
       </c>
       <c r="O12" t="n">
-        <v>10.23473417093367</v>
+        <v>10.24391033129193</v>
       </c>
       <c r="P12" t="n">
-        <v>356.6887943485769</v>
+        <v>356.6207610179487</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28084,28 +28154,28 @@
         <v>0.0532</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7588725333041079</v>
+        <v>0.7662950414635222</v>
       </c>
       <c r="J13" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K13" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2416500992012083</v>
+        <v>0.2452271912625025</v>
       </c>
       <c r="M13" t="n">
-        <v>8.185272740799261</v>
+        <v>8.202791188237869</v>
       </c>
       <c r="N13" t="n">
-        <v>100.0761468314306</v>
+        <v>100.3544710563473</v>
       </c>
       <c r="O13" t="n">
-        <v>10.00380661705486</v>
+        <v>10.01770787437662</v>
       </c>
       <c r="P13" t="n">
-        <v>358.5927977924284</v>
+        <v>358.5197175139845</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28162,28 +28232,28 @@
         <v>0.0551</v>
       </c>
       <c r="I14" t="n">
-        <v>0.771045513821179</v>
+        <v>0.7780663083778078</v>
       </c>
       <c r="J14" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K14" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2164357964017231</v>
+        <v>0.2197350042407049</v>
       </c>
       <c r="M14" t="n">
-        <v>8.877526692308388</v>
+        <v>8.890646797489632</v>
       </c>
       <c r="N14" t="n">
-        <v>120.6161462607309</v>
+        <v>120.7845555459226</v>
       </c>
       <c r="O14" t="n">
-        <v>10.98253824308073</v>
+        <v>10.99020270722622</v>
       </c>
       <c r="P14" t="n">
-        <v>362.5440490059739</v>
+        <v>362.4750227672925</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28240,28 +28310,28 @@
         <v>0.054</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5790656444774661</v>
+        <v>0.5837971091837423</v>
       </c>
       <c r="J15" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K15" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1361910725971023</v>
+        <v>0.1385580770361672</v>
       </c>
       <c r="M15" t="n">
-        <v>8.677723899086157</v>
+        <v>8.677442428564342</v>
       </c>
       <c r="N15" t="n">
-        <v>116.7019719280284</v>
+        <v>116.5825696333445</v>
       </c>
       <c r="O15" t="n">
-        <v>10.8028686897522</v>
+        <v>10.79734085936646</v>
       </c>
       <c r="P15" t="n">
-        <v>366.837257484359</v>
+        <v>366.789910961681</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28318,28 +28388,28 @@
         <v>0.0605</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2987942549853794</v>
+        <v>0.3068584799736339</v>
       </c>
       <c r="J16" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K16" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04259170692490466</v>
+        <v>0.04481955717446973</v>
       </c>
       <c r="M16" t="n">
-        <v>8.375750402309073</v>
+        <v>8.391969476641664</v>
       </c>
       <c r="N16" t="n">
-        <v>108.9678733536123</v>
+        <v>109.2685506376658</v>
       </c>
       <c r="O16" t="n">
-        <v>10.43876780820477</v>
+        <v>10.45315983986019</v>
       </c>
       <c r="P16" t="n">
-        <v>366.5096504232969</v>
+        <v>366.4287646848905</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28396,28 +28466,28 @@
         <v>0.0612</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.04507882734403458</v>
+        <v>-0.03887544554826948</v>
       </c>
       <c r="J17" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K17" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0007093573667650288</v>
+        <v>0.0005295469507108352</v>
       </c>
       <c r="M17" t="n">
-        <v>10.15844442714271</v>
+        <v>10.16189877858434</v>
       </c>
       <c r="N17" t="n">
-        <v>154.8113589904152</v>
+        <v>154.7075808102804</v>
       </c>
       <c r="O17" t="n">
-        <v>12.44232128625584</v>
+        <v>12.43815021658287</v>
       </c>
       <c r="P17" t="n">
-        <v>375.5580622698552</v>
+        <v>375.4957957957307</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28455,7 +28525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R403"/>
+  <dimension ref="A1:R404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62171,6 +62241,98 @@
         </is>
       </c>
     </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>-37.7442510891638,176.47056486712822</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>-37.74489371614301,176.47094697244668</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>-37.745525887446504,176.47133450234492</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>-37.74609851994238,176.4717945386031</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>-37.74671938525811,176.47218381120297</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>-37.74732864400037,176.47264351196694</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>-37.74785633743544,176.4732492318254</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>-37.74846145256216,176.4737196521814</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>-37.74904628890511,176.4742157932219</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>-37.749675747411644,176.47464511036384</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>-37.75022431706215,176.47522262594094</t>
+        </is>
+      </c>
+      <c r="M404" t="inlineStr">
+        <is>
+          <t>-37.750791664954605,176.47577029210996</t>
+        </is>
+      </c>
+      <c r="N404" t="inlineStr">
+        <is>
+          <t>-37.7513556412257,176.4763167864531</t>
+        </is>
+      </c>
+      <c r="O404" t="inlineStr">
+        <is>
+          <t>-37.75195953797798,176.47677445590293</t>
+        </is>
+      </c>
+      <c r="P404" t="inlineStr">
+        <is>
+          <t>-37.75252628117868,176.4773222108125</t>
+        </is>
+      </c>
+      <c r="Q404" t="inlineStr">
+        <is>
+          <t>-37.753143060344314,176.47779369617982</t>
+        </is>
+      </c>
+      <c r="R404" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0220/nzd0220.xlsx
+++ b/data/nzd0220/nzd0220.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R404"/>
+  <dimension ref="A1:R406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23024,6 +23024,122 @@
         </is>
       </c>
     </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-23 21:59:19+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>403.66</v>
+      </c>
+      <c r="C405" t="n">
+        <v>391.68</v>
+      </c>
+      <c r="D405" t="n">
+        <v>382.9</v>
+      </c>
+      <c r="E405" t="n">
+        <v>397.41</v>
+      </c>
+      <c r="F405" t="n">
+        <v>395.3</v>
+      </c>
+      <c r="G405" t="n">
+        <v>390.74</v>
+      </c>
+      <c r="H405" t="n">
+        <v>389.55</v>
+      </c>
+      <c r="I405" t="n">
+        <v>399.94</v>
+      </c>
+      <c r="J405" t="n">
+        <v>390.73</v>
+      </c>
+      <c r="K405" t="n">
+        <v>395.4827272727272</v>
+      </c>
+      <c r="L405" t="n">
+        <v>400.25</v>
+      </c>
+      <c r="M405" t="n">
+        <v>399.69</v>
+      </c>
+      <c r="N405" t="n">
+        <v>406.46</v>
+      </c>
+      <c r="O405" t="n">
+        <v>395.69</v>
+      </c>
+      <c r="P405" t="inlineStr"/>
+      <c r="Q405" t="inlineStr"/>
+      <c r="R405" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:17+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>375.9322222222222</v>
+      </c>
+      <c r="C406" t="n">
+        <v>380.44</v>
+      </c>
+      <c r="D406" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="E406" t="n">
+        <v>393.59</v>
+      </c>
+      <c r="F406" t="n">
+        <v>391.33</v>
+      </c>
+      <c r="G406" t="n">
+        <v>394.54</v>
+      </c>
+      <c r="H406" t="n">
+        <v>404.02</v>
+      </c>
+      <c r="I406" t="n">
+        <v>399.46</v>
+      </c>
+      <c r="J406" t="n">
+        <v>391.76</v>
+      </c>
+      <c r="K406" t="n">
+        <v>379.4163636363636</v>
+      </c>
+      <c r="L406" t="n">
+        <v>379.83</v>
+      </c>
+      <c r="M406" t="n">
+        <v>382.04</v>
+      </c>
+      <c r="N406" t="n">
+        <v>386.1</v>
+      </c>
+      <c r="O406" t="n">
+        <v>387.93</v>
+      </c>
+      <c r="P406" t="n">
+        <v>383.3363636363636</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>391.0563636363637</v>
+      </c>
+      <c r="R406" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23035,7 +23151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B408"/>
+  <dimension ref="A1:B410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27123,6 +27239,26 @@
       </c>
       <c r="B408" t="n">
         <v>0.46</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2025-05-23 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>
@@ -27296,28 +27432,28 @@
         <v>0.0503</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5546914298089024</v>
+        <v>0.5631265431856342</v>
       </c>
       <c r="J2" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K2" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1957305653016667</v>
+        <v>0.1991245645807422</v>
       </c>
       <c r="M2" t="n">
-        <v>6.71145100193027</v>
+        <v>6.754598272797178</v>
       </c>
       <c r="N2" t="n">
-        <v>71.0613394890928</v>
+        <v>72.10514790930564</v>
       </c>
       <c r="O2" t="n">
-        <v>8.429788816399425</v>
+        <v>8.49147501375972</v>
       </c>
       <c r="P2" t="n">
-        <v>367.7299016793262</v>
+        <v>367.6479976613954</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27374,28 +27510,28 @@
         <v>0.0454</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8938480482011719</v>
+        <v>0.8952202619479677</v>
       </c>
       <c r="J3" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K3" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3427343230325132</v>
+        <v>0.3455737848419782</v>
       </c>
       <c r="M3" t="n">
-        <v>7.528007615817572</v>
+        <v>7.516500192003824</v>
       </c>
       <c r="N3" t="n">
-        <v>86.18430657191429</v>
+        <v>85.87659194550933</v>
       </c>
       <c r="O3" t="n">
-        <v>9.283550321504929</v>
+        <v>9.266962390422728</v>
       </c>
       <c r="P3" t="n">
-        <v>361.863503238775</v>
+        <v>361.8502240642384</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27452,28 +27588,28 @@
         <v>0.0445</v>
       </c>
       <c r="I4" t="n">
-        <v>1.001007644861016</v>
+        <v>1.000671544784644</v>
       </c>
       <c r="J4" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K4" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3834257233128113</v>
+        <v>0.3859340665897013</v>
       </c>
       <c r="M4" t="n">
-        <v>7.686132500461328</v>
+        <v>7.657292505883539</v>
       </c>
       <c r="N4" t="n">
-        <v>90.68983890527363</v>
+        <v>90.20123774817455</v>
       </c>
       <c r="O4" t="n">
-        <v>9.523121279563419</v>
+        <v>9.497433218937344</v>
       </c>
       <c r="P4" t="n">
-        <v>360.322993960475</v>
+        <v>360.3262479624648</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27530,28 +27666,28 @@
         <v>0.057</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9590796275957925</v>
+        <v>0.9664979924899716</v>
       </c>
       <c r="J5" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K5" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3793185941678685</v>
+        <v>0.3848228418644376</v>
       </c>
       <c r="M5" t="n">
-        <v>7.038858495883226</v>
+        <v>7.041071887448154</v>
       </c>
       <c r="N5" t="n">
-        <v>83.99675202958602</v>
+        <v>83.8130582954488</v>
       </c>
       <c r="O5" t="n">
-        <v>9.164974196885991</v>
+        <v>9.154947203313014</v>
       </c>
       <c r="P5" t="n">
-        <v>363.9183257749287</v>
+        <v>363.8458018767075</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27608,28 +27744,28 @@
         <v>0.0561</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8038571269254831</v>
+        <v>0.812393509138263</v>
       </c>
       <c r="J6" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K6" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3084536188852314</v>
+        <v>0.3144674067460205</v>
       </c>
       <c r="M6" t="n">
-        <v>7.215750937519955</v>
+        <v>7.221196774802427</v>
       </c>
       <c r="N6" t="n">
-        <v>80.36997566229333</v>
+        <v>80.28940867082476</v>
       </c>
       <c r="O6" t="n">
-        <v>8.964930321106424</v>
+        <v>8.960435741124689</v>
       </c>
       <c r="P6" t="n">
-        <v>364.7406514678519</v>
+        <v>364.6572315202543</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27686,28 +27822,28 @@
         <v>0.054</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7514687047738905</v>
+        <v>0.7571493120785708</v>
       </c>
       <c r="J7" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K7" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2683003545229691</v>
+        <v>0.2730950575553073</v>
       </c>
       <c r="M7" t="n">
-        <v>7.300547243826324</v>
+        <v>7.288846510810759</v>
       </c>
       <c r="N7" t="n">
-        <v>84.94250175336109</v>
+        <v>84.65014126306649</v>
       </c>
       <c r="O7" t="n">
-        <v>9.216425649532528</v>
+        <v>9.200551139093054</v>
       </c>
       <c r="P7" t="n">
-        <v>367.9792705964672</v>
+        <v>367.9234467848273</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27764,28 +27900,28 @@
         <v>0.0464</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4842704128970039</v>
+        <v>0.4890486952256367</v>
       </c>
       <c r="J8" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K8" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1448522700119568</v>
+        <v>0.1480845280638723</v>
       </c>
       <c r="M8" t="n">
-        <v>6.834351967112073</v>
+        <v>6.836448458366697</v>
       </c>
       <c r="N8" t="n">
-        <v>76.21081289848132</v>
+        <v>76.18603230411966</v>
       </c>
       <c r="O8" t="n">
-        <v>8.729880463012154</v>
+        <v>8.728461050157676</v>
       </c>
       <c r="P8" t="n">
-        <v>379.9044085484654</v>
+        <v>379.8574038739824</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27842,28 +27978,28 @@
         <v>0.0553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.616791967255173</v>
+        <v>0.6277782441864725</v>
       </c>
       <c r="J9" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K9" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2290773923957604</v>
+        <v>0.2360262256526147</v>
       </c>
       <c r="M9" t="n">
-        <v>6.804471749827234</v>
+        <v>6.82011633332666</v>
       </c>
       <c r="N9" t="n">
-        <v>70.44868452574262</v>
+        <v>70.61979161550238</v>
       </c>
       <c r="O9" t="n">
-        <v>8.393371463586169</v>
+        <v>8.403558271083885</v>
       </c>
       <c r="P9" t="n">
-        <v>373.7482894391375</v>
+        <v>373.6405727205447</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27920,28 +28056,28 @@
         <v>0.056</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8172407237523823</v>
+        <v>0.825876684452888</v>
       </c>
       <c r="J10" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K10" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3087915028639044</v>
+        <v>0.3149070536886531</v>
       </c>
       <c r="M10" t="n">
-        <v>7.142799383771395</v>
+        <v>7.146586707532827</v>
       </c>
       <c r="N10" t="n">
-        <v>81.75068598006008</v>
+        <v>81.62659758145111</v>
       </c>
       <c r="O10" t="n">
-        <v>9.041608594716987</v>
+        <v>9.034743913440552</v>
       </c>
       <c r="P10" t="n">
-        <v>362.4592875880592</v>
+        <v>362.3736757557072</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27998,28 +28134,28 @@
         <v>0.0582</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7542675570441504</v>
+        <v>0.7655765085083639</v>
       </c>
       <c r="J11" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K11" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2730772237537306</v>
+        <v>0.278967436353036</v>
       </c>
       <c r="M11" t="n">
-        <v>7.515577713103943</v>
+        <v>7.532109501881657</v>
       </c>
       <c r="N11" t="n">
-        <v>83.98674021865759</v>
+        <v>84.50307394167771</v>
       </c>
       <c r="O11" t="n">
-        <v>9.164427980984824</v>
+        <v>9.192555354289563</v>
       </c>
       <c r="P11" t="n">
-        <v>357.3979375588258</v>
+        <v>357.287491430597</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28076,28 +28212,28 @@
         <v>0.0525</v>
       </c>
       <c r="I12" t="n">
-        <v>0.755361113473335</v>
+        <v>0.7699710653933882</v>
       </c>
       <c r="J12" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K12" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2323762755788011</v>
+        <v>0.2384672804442971</v>
       </c>
       <c r="M12" t="n">
-        <v>8.550280034368095</v>
+        <v>8.584764386306885</v>
       </c>
       <c r="N12" t="n">
-        <v>104.9376988755495</v>
+        <v>106.0025313516314</v>
       </c>
       <c r="O12" t="n">
-        <v>10.24391033129193</v>
+        <v>10.29575307355569</v>
       </c>
       <c r="P12" t="n">
-        <v>356.6207610179487</v>
+        <v>356.4778639149123</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28154,28 +28290,28 @@
         <v>0.0532</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7662950414635222</v>
+        <v>0.7793419915713677</v>
       </c>
       <c r="J13" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K13" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2452271912625025</v>
+        <v>0.2511471261556888</v>
       </c>
       <c r="M13" t="n">
-        <v>8.202791188237869</v>
+        <v>8.228123312640429</v>
       </c>
       <c r="N13" t="n">
-        <v>100.3544710563473</v>
+        <v>101.1012554689232</v>
       </c>
       <c r="O13" t="n">
-        <v>10.01770787437662</v>
+        <v>10.05491200702041</v>
       </c>
       <c r="P13" t="n">
-        <v>358.5197175139845</v>
+        <v>358.3910952690582</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28232,28 +28368,28 @@
         <v>0.0551</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7780663083778078</v>
+        <v>0.7922756919996509</v>
       </c>
       <c r="J14" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K14" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2197350042407049</v>
+        <v>0.2255177585750091</v>
       </c>
       <c r="M14" t="n">
-        <v>8.890646797489632</v>
+        <v>8.9176853073632</v>
       </c>
       <c r="N14" t="n">
-        <v>120.7845555459226</v>
+        <v>121.7451792568209</v>
       </c>
       <c r="O14" t="n">
-        <v>10.99020270722622</v>
+        <v>11.03381979446923</v>
       </c>
       <c r="P14" t="n">
-        <v>362.4750227672925</v>
+        <v>362.3351384132859</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28310,28 +28446,28 @@
         <v>0.054</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5837971091837423</v>
+        <v>0.5945241413564113</v>
       </c>
       <c r="J15" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K15" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1385580770361672</v>
+        <v>0.1436219717696479</v>
       </c>
       <c r="M15" t="n">
-        <v>8.677442428564342</v>
+        <v>8.684276107724637</v>
       </c>
       <c r="N15" t="n">
-        <v>116.5825696333445</v>
+        <v>116.568965778609</v>
       </c>
       <c r="O15" t="n">
-        <v>10.79734085936646</v>
+        <v>10.79671087779093</v>
       </c>
       <c r="P15" t="n">
-        <v>366.789910961681</v>
+        <v>366.6824085936349</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28388,28 +28524,28 @@
         <v>0.0605</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3068584799736339</v>
+        <v>0.3118121382832351</v>
       </c>
       <c r="J16" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K16" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04481955717446973</v>
+        <v>0.04636771320222899</v>
       </c>
       <c r="M16" t="n">
-        <v>8.391969476641664</v>
+        <v>8.392387744035339</v>
       </c>
       <c r="N16" t="n">
-        <v>109.2685506376658</v>
+        <v>109.1861825280657</v>
       </c>
       <c r="O16" t="n">
-        <v>10.45315983986019</v>
+        <v>10.44921923054855</v>
       </c>
       <c r="P16" t="n">
-        <v>366.4287646848905</v>
+        <v>366.3789680543527</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28466,28 +28602,28 @@
         <v>0.0612</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.03887544554826948</v>
+        <v>-0.02957229165530577</v>
       </c>
       <c r="J17" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K17" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0005295469507108352</v>
+        <v>0.0003066986917330539</v>
       </c>
       <c r="M17" t="n">
-        <v>10.16189877858434</v>
+        <v>10.18299560567704</v>
       </c>
       <c r="N17" t="n">
-        <v>154.7075808102804</v>
+        <v>155.0529251635618</v>
       </c>
       <c r="O17" t="n">
-        <v>12.43815021658287</v>
+        <v>12.452024942296</v>
       </c>
       <c r="P17" t="n">
-        <v>375.4957957957307</v>
+        <v>375.4022097572562</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28525,7 +28661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R404"/>
+  <dimension ref="A1:R406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41005,7 +41141,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>-37.751534618515194,176.47600951015852</t>
+          <t>-37.75153461851519,176.47600951015852</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -62333,6 +62469,182 @@
         </is>
       </c>
     </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-23 21:59:19+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>-37.74419267165328,176.4707235566475</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>-37.74488939949463,176.4709586985324</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>-37.74556927935189,176.47122365947112</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>-37.746120534179994,176.4717486329225</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>-37.746706985518216,176.47220637164344</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>-37.74732138409796,176.4726564874853</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>-37.74791313204297,176.47314928422105</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>-37.748444525234916,176.47374915070336</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>-37.74907214515029,176.4741724699313</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>-37.749614533000816,176.4747447195295</t>
+        </is>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>-37.75016360629961,176.4753238754597</t>
+        </is>
+      </c>
+      <c r="M405" t="inlineStr">
+        <is>
+          <t>-37.75075209802303,176.47583807773913</t>
+        </is>
+      </c>
+      <c r="N405" t="inlineStr">
+        <is>
+          <t>-37.75129882203975,176.47641433561796</t>
+        </is>
+      </c>
+      <c r="O405" t="inlineStr">
+        <is>
+          <t>-37.75193022062953,176.4768215814578</t>
+        </is>
+      </c>
+      <c r="P405" t="inlineStr"/>
+      <c r="Q405" t="inlineStr"/>
+      <c r="R405" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:17+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>-37.74429766315218,176.4704383496204</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>-37.744931960084784,176.47084308337898</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>-37.74554698627517,176.47128060628563</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>-37.746138313108155,176.47171155896962</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>-37.7467273272382,176.47216936132997</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>-37.747301678641925,176.47269170673636</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>-37.7478373185596,176.47328270132954</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>-37.74844705642447,176.4737447397103</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>-37.749066573617526,176.47418180528732</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>-37.749703063441046,176.47460066114618</t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>-37.75027439388689,176.47513911079534</t>
+        </is>
+      </c>
+      <c r="M406" t="inlineStr">
+        <is>
+          <t>-37.75084621606987,176.47567683552182</t>
+        </is>
+      </c>
+      <c r="N406" t="inlineStr">
+        <is>
+          <t>-37.75140724171564,176.4762281966858</t>
+        </is>
+      </c>
+      <c r="O406" t="inlineStr">
+        <is>
+          <t>-37.75197330824179,176.47675232115952</t>
+        </is>
+      </c>
+      <c r="P406" t="inlineStr">
+        <is>
+          <t>-37.752556169934444,176.47727295688316</t>
+        </is>
+      </c>
+      <c r="Q406" t="inlineStr">
+        <is>
+          <t>-37.753113910940094,176.47784637363077</t>
+        </is>
+      </c>
+      <c r="R406" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0220/nzd0220.xlsx
+++ b/data/nzd0220/nzd0220.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R406"/>
+  <dimension ref="A1:R408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23140,6 +23140,126 @@
         </is>
       </c>
     </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-08 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>381.5055555555555</v>
+      </c>
+      <c r="C407" t="n">
+        <v>384.95</v>
+      </c>
+      <c r="D407" t="n">
+        <v>382.16</v>
+      </c>
+      <c r="E407" t="n">
+        <v>386.69</v>
+      </c>
+      <c r="F407" t="n">
+        <v>388.45</v>
+      </c>
+      <c r="G407" t="n">
+        <v>384.81</v>
+      </c>
+      <c r="H407" t="n">
+        <v>393.1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>392.01</v>
+      </c>
+      <c r="J407" t="n">
+        <v>385.92</v>
+      </c>
+      <c r="K407" t="n">
+        <v>384.6281818181818</v>
+      </c>
+      <c r="L407" t="n">
+        <v>381.78</v>
+      </c>
+      <c r="M407" t="n">
+        <v>382.93</v>
+      </c>
+      <c r="N407" t="n">
+        <v>390.88</v>
+      </c>
+      <c r="O407" t="n">
+        <v>392.38</v>
+      </c>
+      <c r="P407" t="n">
+        <v>373.5581818181818</v>
+      </c>
+      <c r="Q407" t="n">
+        <v>372.9381818181818</v>
+      </c>
+      <c r="R407" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:27+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>385.7833333333333</v>
+      </c>
+      <c r="C408" t="n">
+        <v>388.21</v>
+      </c>
+      <c r="D408" t="n">
+        <v>392.21</v>
+      </c>
+      <c r="E408" t="n">
+        <v>395.45</v>
+      </c>
+      <c r="F408" t="n">
+        <v>394.45</v>
+      </c>
+      <c r="G408" t="n">
+        <v>395.04</v>
+      </c>
+      <c r="H408" t="n">
+        <v>401.98</v>
+      </c>
+      <c r="I408" t="n">
+        <v>395.64</v>
+      </c>
+      <c r="J408" t="n">
+        <v>395</v>
+      </c>
+      <c r="K408" t="n">
+        <v>387.1327272727273</v>
+      </c>
+      <c r="L408" t="n">
+        <v>388.05</v>
+      </c>
+      <c r="M408" t="n">
+        <v>391</v>
+      </c>
+      <c r="N408" t="n">
+        <v>394.87</v>
+      </c>
+      <c r="O408" t="n">
+        <v>397.74</v>
+      </c>
+      <c r="P408" t="n">
+        <v>379.7527272727273</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>384.1327272727273</v>
+      </c>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23151,7 +23271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B410"/>
+  <dimension ref="A1:B412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27259,6 +27379,26 @@
       </c>
       <c r="B410" t="n">
         <v>0.64</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2025-06-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
@@ -27432,28 +27572,28 @@
         <v>0.0503</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5631265431856342</v>
+        <v>0.5647500423836014</v>
       </c>
       <c r="J2" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K2" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1991245645807422</v>
+        <v>0.2017891678768764</v>
       </c>
       <c r="M2" t="n">
-        <v>6.754598272797178</v>
+        <v>6.728730099947282</v>
       </c>
       <c r="N2" t="n">
-        <v>72.10514790930564</v>
+        <v>71.73212905000503</v>
       </c>
       <c r="O2" t="n">
-        <v>8.49147501375972</v>
+        <v>8.469482218530542</v>
       </c>
       <c r="P2" t="n">
-        <v>367.6479976613954</v>
+        <v>367.6321696794158</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27510,28 +27650,28 @@
         <v>0.0454</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8952202619479677</v>
+        <v>0.89707739039212</v>
       </c>
       <c r="J3" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K3" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3455737848419782</v>
+        <v>0.3490557249600812</v>
       </c>
       <c r="M3" t="n">
-        <v>7.516500192003824</v>
+        <v>7.482190358264015</v>
       </c>
       <c r="N3" t="n">
-        <v>85.87659194550933</v>
+        <v>85.41217412980861</v>
       </c>
       <c r="O3" t="n">
-        <v>9.266962390422728</v>
+        <v>9.241870705101245</v>
       </c>
       <c r="P3" t="n">
-        <v>361.8502240642384</v>
+        <v>361.8321565156053</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27588,28 +27728,28 @@
         <v>0.0445</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000671544784644</v>
+        <v>1.00191480664278</v>
       </c>
       <c r="J4" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K4" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3859340665897013</v>
+        <v>0.3888680306987271</v>
       </c>
       <c r="M4" t="n">
-        <v>7.657292505883539</v>
+        <v>7.641604296058865</v>
       </c>
       <c r="N4" t="n">
-        <v>90.20123774817455</v>
+        <v>89.82712076847315</v>
       </c>
       <c r="O4" t="n">
-        <v>9.497433218937344</v>
+        <v>9.477717065225843</v>
       </c>
       <c r="P4" t="n">
-        <v>360.3262479624648</v>
+        <v>360.3140900903514</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27666,28 +27806,28 @@
         <v>0.057</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9664979924899716</v>
+        <v>0.9690061296627496</v>
       </c>
       <c r="J5" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K5" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3848228418644376</v>
+        <v>0.3883182232073003</v>
       </c>
       <c r="M5" t="n">
-        <v>7.041071887448154</v>
+        <v>7.026932576318965</v>
       </c>
       <c r="N5" t="n">
-        <v>83.8130582954488</v>
+        <v>83.4808069680611</v>
       </c>
       <c r="O5" t="n">
-        <v>9.154947203313014</v>
+        <v>9.136783184910382</v>
       </c>
       <c r="P5" t="n">
-        <v>363.8458018767075</v>
+        <v>363.8211974602929</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27744,28 +27884,28 @@
         <v>0.0561</v>
       </c>
       <c r="I6" t="n">
-        <v>0.812393509138263</v>
+        <v>0.8186664343584621</v>
       </c>
       <c r="J6" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K6" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3144674067460205</v>
+        <v>0.3196089435363754</v>
       </c>
       <c r="M6" t="n">
-        <v>7.221196774802427</v>
+        <v>7.214747233622289</v>
       </c>
       <c r="N6" t="n">
-        <v>80.28940867082476</v>
+        <v>80.08222317607634</v>
       </c>
       <c r="O6" t="n">
-        <v>8.960435741124689</v>
+        <v>8.948867144844444</v>
       </c>
       <c r="P6" t="n">
-        <v>364.6572315202543</v>
+        <v>364.5957700861888</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27822,28 +27962,28 @@
         <v>0.054</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7571493120785708</v>
+        <v>0.7598036005205844</v>
       </c>
       <c r="J7" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K7" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2730950575553073</v>
+        <v>0.2762917651516581</v>
       </c>
       <c r="M7" t="n">
-        <v>7.288846510810759</v>
+        <v>7.276433137203123</v>
       </c>
       <c r="N7" t="n">
-        <v>84.65014126306649</v>
+        <v>84.36319572000833</v>
       </c>
       <c r="O7" t="n">
-        <v>9.200551139093054</v>
+        <v>9.184943969345069</v>
       </c>
       <c r="P7" t="n">
-        <v>367.9234467848273</v>
+        <v>367.8972817225815</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27900,28 +28040,28 @@
         <v>0.0464</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4890486952256367</v>
+        <v>0.4944588881307072</v>
       </c>
       <c r="J8" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K8" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1480845280638723</v>
+        <v>0.1519111679313581</v>
       </c>
       <c r="M8" t="n">
-        <v>6.836448458366697</v>
+        <v>6.826738864130667</v>
       </c>
       <c r="N8" t="n">
-        <v>76.18603230411966</v>
+        <v>76.01481085186171</v>
       </c>
       <c r="O8" t="n">
-        <v>8.728461050157676</v>
+        <v>8.718647306312013</v>
       </c>
       <c r="P8" t="n">
-        <v>379.8574038739824</v>
+        <v>379.804088718992</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27978,28 +28118,28 @@
         <v>0.0553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6277782441864725</v>
+        <v>0.6321163099287439</v>
       </c>
       <c r="J9" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K9" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2360262256526147</v>
+        <v>0.2403374086564909</v>
       </c>
       <c r="M9" t="n">
-        <v>6.82011633332666</v>
+        <v>6.80305230424988</v>
       </c>
       <c r="N9" t="n">
-        <v>70.61979161550238</v>
+        <v>70.33274638837314</v>
       </c>
       <c r="O9" t="n">
-        <v>8.403558271083885</v>
+        <v>8.386462090081439</v>
       </c>
       <c r="P9" t="n">
-        <v>373.6405727205447</v>
+        <v>373.5979363119783</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28056,28 +28196,28 @@
         <v>0.056</v>
       </c>
       <c r="I10" t="n">
-        <v>0.825876684452888</v>
+        <v>0.8333604626865182</v>
       </c>
       <c r="J10" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K10" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3149070536886531</v>
+        <v>0.3203043923765638</v>
       </c>
       <c r="M10" t="n">
-        <v>7.146586707532827</v>
+        <v>7.144445622886906</v>
       </c>
       <c r="N10" t="n">
-        <v>81.62659758145111</v>
+        <v>81.54118027899484</v>
       </c>
       <c r="O10" t="n">
-        <v>9.034743913440552</v>
+        <v>9.030015519310853</v>
       </c>
       <c r="P10" t="n">
-        <v>362.3736757557072</v>
+        <v>362.2992990038849</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28134,28 +28274,28 @@
         <v>0.0582</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7655765085083639</v>
+        <v>0.7748912637362819</v>
       </c>
       <c r="J11" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K11" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L11" t="n">
-        <v>0.278967436353036</v>
+        <v>0.2850846305163636</v>
       </c>
       <c r="M11" t="n">
-        <v>7.532109501881657</v>
+        <v>7.538745091107618</v>
       </c>
       <c r="N11" t="n">
-        <v>84.50307394167771</v>
+        <v>84.47666636071618</v>
       </c>
       <c r="O11" t="n">
-        <v>9.192555354289563</v>
+        <v>9.191118885136683</v>
       </c>
       <c r="P11" t="n">
-        <v>357.287491430597</v>
+        <v>357.1962765802134</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28212,28 +28352,28 @@
         <v>0.0525</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7699710653933882</v>
+        <v>0.7788698955834295</v>
       </c>
       <c r="J12" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K12" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2384672804442971</v>
+        <v>0.2438944576850999</v>
       </c>
       <c r="M12" t="n">
-        <v>8.584764386306885</v>
+        <v>8.586894206773543</v>
       </c>
       <c r="N12" t="n">
-        <v>106.0025313516314</v>
+        <v>105.8782219178449</v>
       </c>
       <c r="O12" t="n">
-        <v>10.29575307355569</v>
+        <v>10.2897143749399</v>
       </c>
       <c r="P12" t="n">
-        <v>356.4778639149123</v>
+        <v>356.3905789455836</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28290,28 +28430,28 @@
         <v>0.0532</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7793419915713677</v>
+        <v>0.7880352291252861</v>
       </c>
       <c r="J13" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K13" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2511471261556888</v>
+        <v>0.256479269998211</v>
       </c>
       <c r="M13" t="n">
-        <v>8.228123312640429</v>
+        <v>8.230109708499926</v>
       </c>
       <c r="N13" t="n">
-        <v>101.1012554689232</v>
+        <v>101.0297306131643</v>
       </c>
       <c r="O13" t="n">
-        <v>10.05491200702041</v>
+        <v>10.0513546655744</v>
       </c>
       <c r="P13" t="n">
-        <v>358.3910952690582</v>
+        <v>358.3051432927669</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28368,28 +28508,28 @@
         <v>0.0551</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7922756919996509</v>
+        <v>0.8026087176971209</v>
       </c>
       <c r="J14" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K14" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2255177585750091</v>
+        <v>0.2310979157851851</v>
       </c>
       <c r="M14" t="n">
-        <v>8.9176853073632</v>
+        <v>8.923739840196436</v>
       </c>
       <c r="N14" t="n">
-        <v>121.7451792568209</v>
+        <v>121.656529866799</v>
       </c>
       <c r="O14" t="n">
-        <v>11.03381979446923</v>
+        <v>11.02980189608132</v>
       </c>
       <c r="P14" t="n">
-        <v>362.3351384132859</v>
+        <v>362.2331220083051</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28446,28 +28586,28 @@
         <v>0.054</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5945241413564113</v>
+        <v>0.6083528449430871</v>
       </c>
       <c r="J15" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K15" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1436219717696479</v>
+        <v>0.1496537862694693</v>
       </c>
       <c r="M15" t="n">
-        <v>8.684276107724637</v>
+        <v>8.708661893698979</v>
       </c>
       <c r="N15" t="n">
-        <v>116.568965778609</v>
+        <v>116.9095584737127</v>
       </c>
       <c r="O15" t="n">
-        <v>10.79671087779093</v>
+        <v>10.81247235713057</v>
       </c>
       <c r="P15" t="n">
-        <v>366.6824085936349</v>
+        <v>366.543455964031</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28524,28 +28664,28 @@
         <v>0.0605</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3118121382832351</v>
+        <v>0.3142630962195241</v>
       </c>
       <c r="J16" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K16" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04636771320222899</v>
+        <v>0.0475384441784853</v>
       </c>
       <c r="M16" t="n">
-        <v>8.392387744035339</v>
+        <v>8.361219754138373</v>
       </c>
       <c r="N16" t="n">
-        <v>109.1861825280657</v>
+        <v>108.64102800193</v>
       </c>
       <c r="O16" t="n">
-        <v>10.44921923054855</v>
+        <v>10.42310069038624</v>
       </c>
       <c r="P16" t="n">
-        <v>366.3789680543527</v>
+        <v>366.3542698164045</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28602,28 +28742,28 @@
         <v>0.0612</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.02957229165530577</v>
+        <v>-0.02525298244084774</v>
       </c>
       <c r="J17" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K17" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003066986917330539</v>
+        <v>0.0002258749198271737</v>
       </c>
       <c r="M17" t="n">
-        <v>10.18299560567704</v>
+        <v>10.15712694128375</v>
       </c>
       <c r="N17" t="n">
-        <v>155.0529251635618</v>
+        <v>154.4146573602958</v>
       </c>
       <c r="O17" t="n">
-        <v>12.452024942296</v>
+        <v>12.42636943601372</v>
       </c>
       <c r="P17" t="n">
-        <v>375.4022097572562</v>
+        <v>375.3586527314271</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28661,7 +28801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R406"/>
+  <dimension ref="A1:R408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62645,6 +62785,190 @@
         </is>
       </c>
     </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-08 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>-37.74427655972406,176.4704956768154</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>-37.744914882850225,176.47088947346177</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>-37.7455722252208,176.47121613435365</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>-37.746170426851414,176.47164459288257</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>-37.74674208394523,176.47214251252538</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>-37.74735213496133,176.47260152687892</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>-37.747894532341505,176.47318201615667</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>-37.748486342576214,176.47367627738265</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>-37.749098163658466,176.47412887470614</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>-37.749674344790975,176.4746473927361</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>-37.75026381428052,176.47515675484973</t>
+        </is>
+      </c>
+      <c r="M407" t="inlineStr">
+        <is>
+          <t>-37.75084147017887,176.4756849661592</t>
+        </is>
+      </c>
+      <c r="N407" t="inlineStr">
+        <is>
+          <t>-37.75138178761163,176.47627189732978</t>
+        </is>
+      </c>
+      <c r="O407" t="inlineStr">
+        <is>
+          <t>-37.7519485994996,176.47679203873747</t>
+        </is>
+      </c>
+      <c r="P407" t="inlineStr">
+        <is>
+          <t>-37.75260962573345,176.47718486644922</t>
+        </is>
+      </c>
+      <c r="Q407" t="inlineStr">
+        <is>
+          <t>-37.75320717585436,176.47767782931763</t>
+        </is>
+      </c>
+      <c r="R407" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:27+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>-37.74426036189947,176.47053967792863</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>-37.74490253876302,176.4709230059688</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>-37.74553221709754,176.47131833353052</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>-37.746129656353915,176.4717296106872</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>-37.7467113407992,176.4721984475227</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>-37.74729908581803,176.47269634084694</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>-37.74784800685453,176.4732638920236</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>-37.74846720046926,176.47370963554616</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>-37.74904904762654,176.47421117086392</t>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>-37.74966054400334,176.47466984964439</t>
+        </is>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>-37.75022979676067,176.47521348723615</t>
+        </is>
+      </c>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t>-37.75079843718864,176.47575868998004</t>
+        </is>
+      </c>
+      <c r="N408" t="inlineStr">
+        <is>
+          <t>-37.75136054034605,176.47630837545893</t>
+        </is>
+      </c>
+      <c r="O408" t="inlineStr">
+        <is>
+          <t>-37.75191883794226,176.4768398783013</t>
+        </is>
+      </c>
+      <c r="P408" t="inlineStr">
+        <is>
+          <t>-37.752575761124,176.47724067236018</t>
+        </is>
+      </c>
+      <c r="Q408" t="inlineStr">
+        <is>
+          <t>-37.75314955098571,176.4777819665827</t>
+        </is>
+      </c>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0220/nzd0220.xlsx
+++ b/data/nzd0220/nzd0220.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R408"/>
+  <dimension ref="A1:R409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23260,6 +23260,66 @@
         </is>
       </c>
     </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 21:59:40+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>381.3422222222222</v>
+      </c>
+      <c r="C409" t="n">
+        <v>386.63</v>
+      </c>
+      <c r="D409" t="n">
+        <v>390.87</v>
+      </c>
+      <c r="E409" t="n">
+        <v>393.75</v>
+      </c>
+      <c r="F409" t="n">
+        <v>386.67</v>
+      </c>
+      <c r="G409" t="n">
+        <v>395.35</v>
+      </c>
+      <c r="H409" t="n">
+        <v>399</v>
+      </c>
+      <c r="I409" t="n">
+        <v>395.35</v>
+      </c>
+      <c r="J409" t="n">
+        <v>387.96</v>
+      </c>
+      <c r="K409" t="n">
+        <v>385.8954545454546</v>
+      </c>
+      <c r="L409" t="n">
+        <v>386.08</v>
+      </c>
+      <c r="M409" t="n">
+        <v>389.89</v>
+      </c>
+      <c r="N409" t="n">
+        <v>386.9</v>
+      </c>
+      <c r="O409" t="n">
+        <v>384</v>
+      </c>
+      <c r="P409" t="n">
+        <v>382.6854545454545</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>381.8054545454546</v>
+      </c>
+      <c r="R409" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23271,7 +23331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B412"/>
+  <dimension ref="A1:B413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27399,6 +27459,16 @@
       </c>
       <c r="B412" t="n">
         <v>0.51</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>-0.08</v>
       </c>
     </row>
   </sheetData>
@@ -27572,28 +27642,28 @@
         <v>0.0503</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5647500423836014</v>
+        <v>0.5642911251784207</v>
       </c>
       <c r="J2" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K2" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2017891678768764</v>
+        <v>0.2024436752520001</v>
       </c>
       <c r="M2" t="n">
-        <v>6.728730099947282</v>
+        <v>6.711840382044946</v>
       </c>
       <c r="N2" t="n">
-        <v>71.73212905000503</v>
+        <v>71.52985971731543</v>
       </c>
       <c r="O2" t="n">
-        <v>8.469482218530542</v>
+        <v>8.457532720440131</v>
       </c>
       <c r="P2" t="n">
-        <v>367.6321696794158</v>
+        <v>367.6366629391044</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27650,28 +27720,28 @@
         <v>0.0454</v>
       </c>
       <c r="I3" t="n">
-        <v>0.89707739039212</v>
+        <v>0.8979688227554216</v>
       </c>
       <c r="J3" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K3" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3490557249600812</v>
+        <v>0.3508064629679009</v>
       </c>
       <c r="M3" t="n">
-        <v>7.482190358264015</v>
+        <v>7.464963302488341</v>
       </c>
       <c r="N3" t="n">
-        <v>85.41217412980861</v>
+        <v>85.17382537794424</v>
       </c>
       <c r="O3" t="n">
-        <v>9.241870705101245</v>
+        <v>9.228966647352467</v>
       </c>
       <c r="P3" t="n">
-        <v>361.8321565156053</v>
+        <v>361.8234447004119</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27728,28 +27798,28 @@
         <v>0.0445</v>
       </c>
       <c r="I4" t="n">
-        <v>1.00191480664278</v>
+        <v>1.004473412064361</v>
       </c>
       <c r="J4" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K4" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3888680306987271</v>
+        <v>0.391293331261424</v>
       </c>
       <c r="M4" t="n">
-        <v>7.641604296058865</v>
+        <v>7.632542843844062</v>
       </c>
       <c r="N4" t="n">
-        <v>89.82712076847315</v>
+        <v>89.62863339903008</v>
       </c>
       <c r="O4" t="n">
-        <v>9.477717065225843</v>
+        <v>9.467240009581994</v>
       </c>
       <c r="P4" t="n">
-        <v>360.3140900903514</v>
+        <v>360.2890045168376</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27806,28 +27876,28 @@
         <v>0.057</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9690061296627496</v>
+        <v>0.9715970135182466</v>
       </c>
       <c r="J5" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K5" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3883182232073003</v>
+        <v>0.3907317701761001</v>
       </c>
       <c r="M5" t="n">
-        <v>7.026932576318965</v>
+        <v>7.021830777910228</v>
       </c>
       <c r="N5" t="n">
-        <v>83.4808069680611</v>
+        <v>83.31439447717867</v>
       </c>
       <c r="O5" t="n">
-        <v>9.136783184910382</v>
+        <v>9.127671908935962</v>
       </c>
       <c r="P5" t="n">
-        <v>363.8211974602929</v>
+        <v>363.795679487465</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27884,28 +27954,28 @@
         <v>0.0561</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8186664343584621</v>
+        <v>0.8191712939661172</v>
       </c>
       <c r="J6" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K6" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3196089435363754</v>
+        <v>0.3211131116501693</v>
       </c>
       <c r="M6" t="n">
-        <v>7.214747233622289</v>
+        <v>7.197324643723266</v>
       </c>
       <c r="N6" t="n">
-        <v>80.08222317607634</v>
+        <v>79.86103680688383</v>
       </c>
       <c r="O6" t="n">
-        <v>8.948867144844444</v>
+        <v>8.936500254959087</v>
       </c>
       <c r="P6" t="n">
-        <v>364.5957700861888</v>
+        <v>364.5908004052778</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27962,28 +28032,28 @@
         <v>0.054</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7598036005205844</v>
+        <v>0.7638988620479915</v>
       </c>
       <c r="J7" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K7" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2762917651516581</v>
+        <v>0.2791711334140048</v>
       </c>
       <c r="M7" t="n">
-        <v>7.276433137203123</v>
+        <v>7.277176504479147</v>
       </c>
       <c r="N7" t="n">
-        <v>84.36319572000833</v>
+        <v>84.29943329241651</v>
       </c>
       <c r="O7" t="n">
-        <v>9.184943969345069</v>
+        <v>9.181472283485721</v>
       </c>
       <c r="P7" t="n">
-        <v>367.8972817225815</v>
+        <v>367.8567577393756</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28040,28 +28110,28 @@
         <v>0.0464</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4944588881307072</v>
+        <v>0.4978650216588867</v>
       </c>
       <c r="J8" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K8" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1519111679313581</v>
+        <v>0.154232289750848</v>
       </c>
       <c r="M8" t="n">
-        <v>6.826738864130667</v>
+        <v>6.825435619984423</v>
       </c>
       <c r="N8" t="n">
-        <v>76.01481085186171</v>
+        <v>75.91809597645647</v>
       </c>
       <c r="O8" t="n">
-        <v>8.718647306312013</v>
+        <v>8.71309910287129</v>
       </c>
       <c r="P8" t="n">
-        <v>379.804088718992</v>
+        <v>379.7703738312599</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28118,28 +28188,28 @@
         <v>0.0553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6321163099287439</v>
+        <v>0.6350326121966612</v>
       </c>
       <c r="J9" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K9" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2403374086564909</v>
+        <v>0.2428679740703907</v>
       </c>
       <c r="M9" t="n">
-        <v>6.80305230424988</v>
+        <v>6.798094614502843</v>
       </c>
       <c r="N9" t="n">
-        <v>70.33274638837314</v>
+        <v>70.21832007234887</v>
       </c>
       <c r="O9" t="n">
-        <v>8.386462090081439</v>
+        <v>8.379637227968098</v>
       </c>
       <c r="P9" t="n">
-        <v>373.5979363119783</v>
+        <v>373.5691406842321</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28196,28 +28266,28 @@
         <v>0.056</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8333604626865182</v>
+        <v>0.8356292656178995</v>
       </c>
       <c r="J10" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K10" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3203043923765638</v>
+        <v>0.3226232381645548</v>
       </c>
       <c r="M10" t="n">
-        <v>7.144445622886906</v>
+        <v>7.135827415967336</v>
       </c>
       <c r="N10" t="n">
-        <v>81.54118027899484</v>
+        <v>81.35666664973104</v>
       </c>
       <c r="O10" t="n">
-        <v>9.030015519310853</v>
+        <v>9.019793049163104</v>
       </c>
       <c r="P10" t="n">
-        <v>362.2992990038849</v>
+        <v>362.2766477397332</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28274,28 +28344,28 @@
         <v>0.0582</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7748912637362819</v>
+        <v>0.7794423466732662</v>
       </c>
       <c r="J11" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K11" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2850846305163636</v>
+        <v>0.2881294840941242</v>
       </c>
       <c r="M11" t="n">
-        <v>7.538745091107618</v>
+        <v>7.54142215010086</v>
       </c>
       <c r="N11" t="n">
-        <v>84.47666636071618</v>
+        <v>84.45106793409767</v>
       </c>
       <c r="O11" t="n">
-        <v>9.191118885136683</v>
+        <v>9.189726216492941</v>
       </c>
       <c r="P11" t="n">
-        <v>357.1962765802134</v>
+        <v>357.1514931222462</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28352,28 +28422,28 @@
         <v>0.0525</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7788698955834295</v>
+        <v>0.7838097844443424</v>
       </c>
       <c r="J12" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K12" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2438944576850999</v>
+        <v>0.2468188583034479</v>
       </c>
       <c r="M12" t="n">
-        <v>8.586894206773543</v>
+        <v>8.590556156825711</v>
       </c>
       <c r="N12" t="n">
-        <v>105.8782219178449</v>
+        <v>105.8383299048208</v>
       </c>
       <c r="O12" t="n">
-        <v>10.2897143749399</v>
+        <v>10.28777575109512</v>
       </c>
       <c r="P12" t="n">
-        <v>356.3905789455836</v>
+        <v>356.3418923902111</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28430,28 +28500,28 @@
         <v>0.0532</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7880352291252861</v>
+        <v>0.7937651670451804</v>
       </c>
       <c r="J13" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K13" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L13" t="n">
-        <v>0.256479269998211</v>
+        <v>0.2596351221505383</v>
       </c>
       <c r="M13" t="n">
-        <v>8.230109708499926</v>
+        <v>8.238282809739424</v>
       </c>
       <c r="N13" t="n">
-        <v>101.0297306131643</v>
+        <v>101.0966594661496</v>
       </c>
       <c r="O13" t="n">
-        <v>10.0513546655744</v>
+        <v>10.05468345927158</v>
       </c>
       <c r="P13" t="n">
-        <v>358.3051432927669</v>
+        <v>358.2482175827072</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28508,28 +28578,28 @@
         <v>0.0551</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8026087176971209</v>
+        <v>0.8046207913216478</v>
       </c>
       <c r="J14" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K14" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2310979157851851</v>
+        <v>0.2328749276402459</v>
       </c>
       <c r="M14" t="n">
-        <v>8.923739840196436</v>
+        <v>8.909671367861909</v>
       </c>
       <c r="N14" t="n">
-        <v>121.656529866799</v>
+        <v>121.3617678083836</v>
       </c>
       <c r="O14" t="n">
-        <v>11.02980189608132</v>
+        <v>11.01643171850049</v>
       </c>
       <c r="P14" t="n">
-        <v>362.2331220083051</v>
+        <v>362.2131551731615</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28586,28 +28656,28 @@
         <v>0.054</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6083528449430871</v>
+        <v>0.6092830840124001</v>
       </c>
       <c r="J15" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K15" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1496537862694693</v>
+        <v>0.150731589722029</v>
       </c>
       <c r="M15" t="n">
-        <v>8.708661893698979</v>
+        <v>8.688662462649686</v>
       </c>
       <c r="N15" t="n">
-        <v>116.9095584737127</v>
+        <v>116.5833772980753</v>
       </c>
       <c r="O15" t="n">
-        <v>10.81247235713057</v>
+        <v>10.79737826039614</v>
       </c>
       <c r="P15" t="n">
-        <v>366.543455964031</v>
+        <v>366.5340614966455</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28664,28 +28734,28 @@
         <v>0.0605</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3142630962195241</v>
+        <v>0.3187158483771748</v>
       </c>
       <c r="J16" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K16" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0475384441784853</v>
+        <v>0.04900910769008215</v>
       </c>
       <c r="M16" t="n">
-        <v>8.361219754138373</v>
+        <v>8.360014571643129</v>
       </c>
       <c r="N16" t="n">
-        <v>108.64102800193</v>
+        <v>108.5214819851822</v>
       </c>
       <c r="O16" t="n">
-        <v>10.42310069038624</v>
+        <v>10.41736444525112</v>
       </c>
       <c r="P16" t="n">
-        <v>366.3542698164045</v>
+        <v>366.309209287349</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28742,28 +28812,28 @@
         <v>0.0612</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.02525298244084774</v>
+        <v>-0.02131845526126994</v>
       </c>
       <c r="J17" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K17" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002258749198271737</v>
+        <v>0.0001617664146662534</v>
       </c>
       <c r="M17" t="n">
-        <v>10.15712694128375</v>
+        <v>10.14892963076176</v>
       </c>
       <c r="N17" t="n">
-        <v>154.4146573602958</v>
+        <v>154.1092022826056</v>
       </c>
       <c r="O17" t="n">
-        <v>12.42636943601372</v>
+        <v>12.41407275162368</v>
       </c>
       <c r="P17" t="n">
-        <v>375.3586527314271</v>
+        <v>375.3188107923033</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28801,7 +28871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R408"/>
+  <dimension ref="A1:R409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62969,6 +63039,98 @@
         </is>
       </c>
     </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 21:59:40+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>-37.74427717818615,176.47049399677252</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>-37.744908521481264,176.470906754019</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>-37.745537551518815,176.47130470698028</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>-37.746137568441235,176.47171311180574</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>-37.74675120440717,176.47212591846704</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>-37.74729747826714,176.47269921399533</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>-37.74786362014314,176.47323641567453</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>-37.74846872972881,176.4737069705696</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>-37.749087128783614,176.47414736416096</t>
+        </is>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>-37.7496673617432,176.47465875568824</t>
+        </is>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>-37.75024048488363,176.47519566223366</t>
+        </is>
+      </c>
+      <c r="M409" t="inlineStr">
+        <is>
+          <t>-37.75080435622697,176.47574854953402</t>
+        </is>
+      </c>
+      <c r="N409" t="inlineStr">
+        <is>
+          <t>-37.75140298161559,176.47623551060326</t>
+        </is>
+      </c>
+      <c r="O409" t="inlineStr">
+        <is>
+          <t>-37.75199512966013,176.4767172447144</t>
+        </is>
+      </c>
+      <c r="P409" t="inlineStr">
+        <is>
+          <t>-37.75255972835506,176.47726709292746</t>
+        </is>
+      </c>
+      <c r="Q409" t="inlineStr">
+        <is>
+          <t>-37.75316153082571,176.47776031714054</t>
+        </is>
+      </c>
+      <c r="R409" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0220/nzd0220.xlsx
+++ b/data/nzd0220/nzd0220.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R409"/>
+  <dimension ref="A1:R411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23320,6 +23320,126 @@
         </is>
       </c>
     </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:59:52+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>378.9622222222222</v>
+      </c>
+      <c r="C410" t="n">
+        <v>380.81</v>
+      </c>
+      <c r="D410" t="n">
+        <v>386.43</v>
+      </c>
+      <c r="E410" t="n">
+        <v>384.13</v>
+      </c>
+      <c r="F410" t="n">
+        <v>387.52</v>
+      </c>
+      <c r="G410" t="n">
+        <v>391.47</v>
+      </c>
+      <c r="H410" t="n">
+        <v>398.33</v>
+      </c>
+      <c r="I410" t="n">
+        <v>394.27</v>
+      </c>
+      <c r="J410" t="n">
+        <v>388.16</v>
+      </c>
+      <c r="K410" t="n">
+        <v>382.17</v>
+      </c>
+      <c r="L410" t="n">
+        <v>384.52</v>
+      </c>
+      <c r="M410" t="n">
+        <v>386.33</v>
+      </c>
+      <c r="N410" t="n">
+        <v>387.5</v>
+      </c>
+      <c r="O410" t="n">
+        <v>384.07</v>
+      </c>
+      <c r="P410" t="n">
+        <v>380.95</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>382.82</v>
+      </c>
+      <c r="R410" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>382.8755555555555</v>
+      </c>
+      <c r="C411" t="n">
+        <v>381.23</v>
+      </c>
+      <c r="D411" t="n">
+        <v>378.94</v>
+      </c>
+      <c r="E411" t="n">
+        <v>380.22</v>
+      </c>
+      <c r="F411" t="n">
+        <v>383.33</v>
+      </c>
+      <c r="G411" t="n">
+        <v>383.54</v>
+      </c>
+      <c r="H411" t="n">
+        <v>385.82</v>
+      </c>
+      <c r="I411" t="n">
+        <v>384.51</v>
+      </c>
+      <c r="J411" t="n">
+        <v>379.26</v>
+      </c>
+      <c r="K411" t="n">
+        <v>376.8154545454545</v>
+      </c>
+      <c r="L411" t="n">
+        <v>374.78</v>
+      </c>
+      <c r="M411" t="n">
+        <v>375.94</v>
+      </c>
+      <c r="N411" t="n">
+        <v>379.45</v>
+      </c>
+      <c r="O411" t="n">
+        <v>371.87</v>
+      </c>
+      <c r="P411" t="n">
+        <v>369.1154545454546</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>381.9254545454546</v>
+      </c>
+      <c r="R411" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23331,7 +23451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B413"/>
+  <dimension ref="A1:B415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27469,6 +27589,26 @@
       </c>
       <c r="B413" t="n">
         <v>-0.08</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2025-08-11 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2025-08-19 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>-0.74</v>
       </c>
     </row>
   </sheetData>
@@ -27642,28 +27782,28 @@
         <v>0.0503</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5642911251784207</v>
+        <v>0.5628999229470657</v>
       </c>
       <c r="J2" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K2" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2024436752520001</v>
+        <v>0.2034173263508859</v>
       </c>
       <c r="M2" t="n">
-        <v>6.711840382044946</v>
+        <v>6.684351424024419</v>
       </c>
       <c r="N2" t="n">
-        <v>71.52985971731543</v>
+        <v>71.15585991715048</v>
       </c>
       <c r="O2" t="n">
-        <v>8.457532720440131</v>
+        <v>8.43539328763932</v>
       </c>
       <c r="P2" t="n">
-        <v>367.6366629391044</v>
+        <v>367.6503259717657</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27720,28 +27860,28 @@
         <v>0.0454</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8979688227554216</v>
+        <v>0.8936515314607083</v>
       </c>
       <c r="J3" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K3" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3508064629679009</v>
+        <v>0.3509979013134995</v>
       </c>
       <c r="M3" t="n">
-        <v>7.464963302488341</v>
+        <v>7.446988110521804</v>
       </c>
       <c r="N3" t="n">
-        <v>85.17382537794424</v>
+        <v>84.7779369065945</v>
       </c>
       <c r="O3" t="n">
-        <v>9.228966647352467</v>
+        <v>9.207493519226309</v>
       </c>
       <c r="P3" t="n">
-        <v>361.8234447004119</v>
+        <v>361.8657998548151</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27798,28 +27938,28 @@
         <v>0.0445</v>
       </c>
       <c r="I4" t="n">
-        <v>1.004473412064361</v>
+        <v>1.000595887433848</v>
       </c>
       <c r="J4" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K4" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L4" t="n">
-        <v>0.391293331261424</v>
+        <v>0.3917931949749951</v>
       </c>
       <c r="M4" t="n">
-        <v>7.632542843844062</v>
+        <v>7.610725783239486</v>
       </c>
       <c r="N4" t="n">
-        <v>89.62863339903008</v>
+        <v>89.26351855100413</v>
       </c>
       <c r="O4" t="n">
-        <v>9.467240009581994</v>
+        <v>9.447937264345278</v>
       </c>
       <c r="P4" t="n">
-        <v>360.2890045168376</v>
+        <v>360.3271931952923</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27876,28 +28016,28 @@
         <v>0.057</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9715970135182466</v>
+        <v>0.9645493338626727</v>
       </c>
       <c r="J5" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K5" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3907317701761001</v>
+        <v>0.3891547976537827</v>
       </c>
       <c r="M5" t="n">
-        <v>7.021830777910228</v>
+        <v>7.017653847682066</v>
       </c>
       <c r="N5" t="n">
-        <v>83.31439447717867</v>
+        <v>83.12239652086136</v>
       </c>
       <c r="O5" t="n">
-        <v>9.127671908935962</v>
+        <v>9.117148486279104</v>
       </c>
       <c r="P5" t="n">
-        <v>363.795679487465</v>
+        <v>363.8653732337374</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27954,28 +28094,28 @@
         <v>0.0561</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8191712939661172</v>
+        <v>0.8187860198756129</v>
       </c>
       <c r="J6" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K6" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3211131116501693</v>
+        <v>0.3233241360282879</v>
       </c>
       <c r="M6" t="n">
-        <v>7.197324643723266</v>
+        <v>7.168971169085843</v>
       </c>
       <c r="N6" t="n">
-        <v>79.86103680688383</v>
+        <v>79.44268253562845</v>
       </c>
       <c r="O6" t="n">
-        <v>8.936500254959087</v>
+        <v>8.913062466718634</v>
       </c>
       <c r="P6" t="n">
-        <v>364.5908004052778</v>
+        <v>364.5946193097625</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28032,28 +28172,28 @@
         <v>0.054</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7638988620479915</v>
+        <v>0.7637705376509596</v>
       </c>
       <c r="J7" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K7" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2791711334140048</v>
+        <v>0.2811462092811796</v>
       </c>
       <c r="M7" t="n">
-        <v>7.277176504479147</v>
+        <v>7.259196663234275</v>
       </c>
       <c r="N7" t="n">
-        <v>84.29943329241651</v>
+        <v>83.92614919321335</v>
       </c>
       <c r="O7" t="n">
-        <v>9.181472283485721</v>
+        <v>9.161121612183377</v>
       </c>
       <c r="P7" t="n">
-        <v>367.8567577393756</v>
+        <v>367.8580545819447</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28110,28 +28250,28 @@
         <v>0.0464</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4978650216588867</v>
+        <v>0.4972513387341908</v>
       </c>
       <c r="J8" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K8" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L8" t="n">
-        <v>0.154232289750848</v>
+        <v>0.1550134112423546</v>
       </c>
       <c r="M8" t="n">
-        <v>6.825435619984423</v>
+        <v>6.82236062784776</v>
       </c>
       <c r="N8" t="n">
-        <v>75.91809597645647</v>
+        <v>75.71757234036828</v>
       </c>
       <c r="O8" t="n">
-        <v>8.71309910287129</v>
+        <v>8.701584472977796</v>
       </c>
       <c r="P8" t="n">
-        <v>379.7703738312599</v>
+        <v>379.7765065210279</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28188,28 +28328,28 @@
         <v>0.0553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6350326121966612</v>
+        <v>0.6343772961883694</v>
       </c>
       <c r="J9" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K9" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2428679740703907</v>
+        <v>0.2442541147216211</v>
       </c>
       <c r="M9" t="n">
-        <v>6.798094614502843</v>
+        <v>6.787734294365132</v>
       </c>
       <c r="N9" t="n">
-        <v>70.21832007234887</v>
+        <v>69.9629471777772</v>
       </c>
       <c r="O9" t="n">
-        <v>8.379637227968098</v>
+        <v>8.36438564257873</v>
       </c>
       <c r="P9" t="n">
-        <v>373.5691406842321</v>
+        <v>373.5756632624367</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28266,28 +28406,28 @@
         <v>0.056</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8356292656178995</v>
+        <v>0.8354177474819903</v>
       </c>
       <c r="J10" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K10" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3226232381645548</v>
+        <v>0.324736543365461</v>
       </c>
       <c r="M10" t="n">
-        <v>7.135827415967336</v>
+        <v>7.120580455141321</v>
       </c>
       <c r="N10" t="n">
-        <v>81.35666664973104</v>
+        <v>81.00659983922438</v>
       </c>
       <c r="O10" t="n">
-        <v>9.019793049163104</v>
+        <v>9.000366650266219</v>
       </c>
       <c r="P10" t="n">
-        <v>362.2766477397332</v>
+        <v>362.2787937923581</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28344,28 +28484,28 @@
         <v>0.0582</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7794423466732662</v>
+        <v>0.7816874036184365</v>
       </c>
       <c r="J11" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K11" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2881294840941242</v>
+        <v>0.291465907614477</v>
       </c>
       <c r="M11" t="n">
-        <v>7.54142215010086</v>
+        <v>7.514694931660347</v>
       </c>
       <c r="N11" t="n">
-        <v>84.45106793409767</v>
+        <v>84.05432738050015</v>
       </c>
       <c r="O11" t="n">
-        <v>9.189726216492941</v>
+        <v>9.168114712442256</v>
       </c>
       <c r="P11" t="n">
-        <v>357.1514931222462</v>
+        <v>357.1293324743084</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28422,28 +28562,28 @@
         <v>0.0525</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7838097844443424</v>
+        <v>0.7868907780888766</v>
       </c>
       <c r="J12" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K12" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2468188583034479</v>
+        <v>0.2500206258660443</v>
       </c>
       <c r="M12" t="n">
-        <v>8.590556156825711</v>
+        <v>8.570989036391349</v>
       </c>
       <c r="N12" t="n">
-        <v>105.8383299048208</v>
+        <v>105.4413802934899</v>
       </c>
       <c r="O12" t="n">
-        <v>10.28777575109512</v>
+        <v>10.26846533292536</v>
       </c>
       <c r="P12" t="n">
-        <v>356.3418923902111</v>
+        <v>356.3114370308505</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28500,28 +28640,28 @@
         <v>0.0532</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7937651670451804</v>
+        <v>0.7961273441451463</v>
       </c>
       <c r="J13" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K13" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2596351221505383</v>
+        <v>0.2625177641591346</v>
       </c>
       <c r="M13" t="n">
-        <v>8.238282809739424</v>
+        <v>8.221898937314569</v>
       </c>
       <c r="N13" t="n">
-        <v>101.0966594661496</v>
+        <v>100.7248194812897</v>
       </c>
       <c r="O13" t="n">
-        <v>10.05468345927158</v>
+        <v>10.03617554057768</v>
       </c>
       <c r="P13" t="n">
-        <v>358.2482175827072</v>
+        <v>358.2246876997978</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28578,28 +28718,28 @@
         <v>0.0551</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8046207913216478</v>
+        <v>0.8050596356947887</v>
       </c>
       <c r="J14" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K14" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2328749276402459</v>
+        <v>0.2348393104317348</v>
       </c>
       <c r="M14" t="n">
-        <v>8.909671367861909</v>
+        <v>8.882673195076556</v>
       </c>
       <c r="N14" t="n">
-        <v>121.3617678083836</v>
+        <v>120.782210757601</v>
       </c>
       <c r="O14" t="n">
-        <v>11.01643171850049</v>
+        <v>10.99009603040851</v>
       </c>
       <c r="P14" t="n">
-        <v>362.2131551731615</v>
+        <v>362.2088061663839</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28656,28 +28796,28 @@
         <v>0.054</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6092830840124001</v>
+        <v>0.6047400426367199</v>
       </c>
       <c r="J15" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K15" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L15" t="n">
-        <v>0.150731589722029</v>
+        <v>0.1498634901882251</v>
       </c>
       <c r="M15" t="n">
-        <v>8.688662462649686</v>
+        <v>8.674389360934796</v>
       </c>
       <c r="N15" t="n">
-        <v>116.5833772980753</v>
+        <v>116.2366960542292</v>
       </c>
       <c r="O15" t="n">
-        <v>10.79737826039614</v>
+        <v>10.78131235305931</v>
       </c>
       <c r="P15" t="n">
-        <v>366.5340614966455</v>
+        <v>366.5801608857839</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28734,28 +28874,28 @@
         <v>0.0605</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3187158483771748</v>
+        <v>0.3192194505146487</v>
       </c>
       <c r="J16" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K16" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04900910769008215</v>
+        <v>0.04959809098120338</v>
       </c>
       <c r="M16" t="n">
-        <v>8.360014571643129</v>
+        <v>8.345993447481456</v>
       </c>
       <c r="N16" t="n">
-        <v>108.5214819851822</v>
+        <v>108.1029478629975</v>
       </c>
       <c r="O16" t="n">
-        <v>10.41736444525112</v>
+        <v>10.3972567469981</v>
       </c>
       <c r="P16" t="n">
-        <v>366.309209287349</v>
+        <v>366.3041290362793</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28812,28 +28952,28 @@
         <v>0.0612</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.02131845526126994</v>
+        <v>-0.01297193668007827</v>
       </c>
       <c r="J17" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K17" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001617664146662534</v>
+        <v>6.046636725909327e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>10.14892963076176</v>
+        <v>10.13494711112416</v>
       </c>
       <c r="N17" t="n">
-        <v>154.1092022826056</v>
+        <v>153.544890139088</v>
       </c>
       <c r="O17" t="n">
-        <v>12.41407275162368</v>
+        <v>12.39132317951106</v>
       </c>
       <c r="P17" t="n">
-        <v>375.3188107923033</v>
+        <v>375.2339725615477</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28871,7 +29011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R409"/>
+  <dimension ref="A1:R411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63131,6 +63271,190 @@
         </is>
       </c>
     </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:59:52+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>-37.744286190059654,176.47046951614396</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>-37.74493055907063,176.47084688921814</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>-37.74555522675476,176.4712595563066</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>-37.746182341506575,176.4716197474785</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>-37.746746849130666,176.47213384259655</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>-37.747317598576885,176.47266325329028</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>-37.74786713051259,176.4732302381045</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>-37.74847442490182,176.47369704582812</t>
+        </is>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>-37.74908604693301,176.47414917685228</t>
+        </is>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>-37.74968789009743,176.47462535153727</t>
+        </is>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>-37.75024894857318,176.4751815469996</t>
+        </is>
+      </c>
+      <c r="M410" t="inlineStr">
+        <is>
+          <t>-37.750823339804,176.47571602701132</t>
+        </is>
+      </c>
+      <c r="N410" t="inlineStr">
+        <is>
+          <t>-37.75139978654026,176.47624099604076</t>
+        </is>
+      </c>
+      <c r="O410" t="inlineStr">
+        <is>
+          <t>-37.751994740983555,176.47671786948587</t>
+        </is>
+      </c>
+      <c r="P410" t="inlineStr">
+        <is>
+          <t>-37.7525692158188,176.4772514584394</t>
+        </is>
+      </c>
+      <c r="Q410" t="inlineStr">
+        <is>
+          <t>-37.753156308364666,176.47776975494514</t>
+        </is>
+      </c>
+      <c r="R410" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>-37.744271372214655,176.4705097686027</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>-37.744928968730086,176.47085120935967</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>-37.74558504372619,176.47118338991635</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>-37.74620053927124,176.47158179999002</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>-37.74676831807716,176.47209478129017</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>-37.74735872072496,176.47258975622023</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>-37.747932674818884,176.47311489261992</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>-37.748525892356554,176.47360735550154</t>
+        </is>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>-37.7491341892608,176.47406851203525</t>
+        </is>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>-37.74971739520829,176.47457734016982</t>
+        </is>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>-37.75030179234338,176.4750934171947</t>
+        </is>
+      </c>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>-37.75087874407305,176.4756211086528</t>
+        </is>
+      </c>
+      <c r="N411" t="inlineStr">
+        <is>
+          <t>-37.751442653781275,176.47616739971394</t>
+        </is>
+      </c>
+      <c r="O411" t="inlineStr">
+        <is>
+          <t>-37.752062481713274,176.47660898064345</t>
+        </is>
+      </c>
+      <c r="P411" t="inlineStr">
+        <is>
+          <t>-37.75263391341253,176.4771448424245</t>
+        </is>
+      </c>
+      <c r="Q411" t="inlineStr">
+        <is>
+          <t>-37.75316091311529,176.4777614334401</t>
+        </is>
+      </c>
+      <c r="R411" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0220/nzd0220.xlsx
+++ b/data/nzd0220/nzd0220.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R411"/>
+  <dimension ref="A1:R413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23440,6 +23440,126 @@
         </is>
       </c>
     </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-04 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>383.9144444444445</v>
+      </c>
+      <c r="C412" t="n">
+        <v>384.25</v>
+      </c>
+      <c r="D412" t="n">
+        <v>384.58</v>
+      </c>
+      <c r="E412" t="n">
+        <v>386.62</v>
+      </c>
+      <c r="F412" t="n">
+        <v>378.45</v>
+      </c>
+      <c r="G412" t="n">
+        <v>382.44</v>
+      </c>
+      <c r="H412" t="n">
+        <v>392.02</v>
+      </c>
+      <c r="I412" t="n">
+        <v>388.61</v>
+      </c>
+      <c r="J412" t="n">
+        <v>379.68</v>
+      </c>
+      <c r="K412" t="n">
+        <v>376.5990909090909</v>
+      </c>
+      <c r="L412" t="n">
+        <v>375.47</v>
+      </c>
+      <c r="M412" t="n">
+        <v>377.88</v>
+      </c>
+      <c r="N412" t="n">
+        <v>380.72</v>
+      </c>
+      <c r="O412" t="n">
+        <v>376.21</v>
+      </c>
+      <c r="P412" t="n">
+        <v>371.2390909090909</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>377.319090909091</v>
+      </c>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>374.2244444444444</v>
+      </c>
+      <c r="C413" t="n">
+        <v>378.79</v>
+      </c>
+      <c r="D413" t="n">
+        <v>382.48</v>
+      </c>
+      <c r="E413" t="n">
+        <v>383.99</v>
+      </c>
+      <c r="F413" t="n">
+        <v>379.5100000000001</v>
+      </c>
+      <c r="G413" t="n">
+        <v>384.47</v>
+      </c>
+      <c r="H413" t="n">
+        <v>390.65</v>
+      </c>
+      <c r="I413" t="n">
+        <v>390.0100000000001</v>
+      </c>
+      <c r="J413" t="n">
+        <v>383.5100000000001</v>
+      </c>
+      <c r="K413" t="n">
+        <v>377.0709090909091</v>
+      </c>
+      <c r="L413" t="n">
+        <v>381.25</v>
+      </c>
+      <c r="M413" t="n">
+        <v>380.6</v>
+      </c>
+      <c r="N413" t="n">
+        <v>375.7600000000001</v>
+      </c>
+      <c r="O413" t="n">
+        <v>380.09</v>
+      </c>
+      <c r="P413" t="n">
+        <v>374.610909090909</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>371.6009090909091</v>
+      </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23451,7 +23571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B415"/>
+  <dimension ref="A1:B417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27609,6 +27729,26 @@
       </c>
       <c r="B415" t="n">
         <v>-0.74</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2025-09-04 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -27782,28 +27922,28 @@
         <v>0.0503</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5628999229470657</v>
+        <v>0.5595707516336933</v>
       </c>
       <c r="J2" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K2" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2034173263508859</v>
+        <v>0.202891202701136</v>
       </c>
       <c r="M2" t="n">
-        <v>6.684351424024419</v>
+        <v>6.673065272104045</v>
       </c>
       <c r="N2" t="n">
-        <v>71.15585991715048</v>
+        <v>70.94374482132842</v>
       </c>
       <c r="O2" t="n">
-        <v>8.43539328763932</v>
+        <v>8.422810980980662</v>
       </c>
       <c r="P2" t="n">
-        <v>367.6503259717657</v>
+        <v>367.6831863118986</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27860,28 +28000,28 @@
         <v>0.0454</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8936515314607083</v>
+        <v>0.8899180258947391</v>
       </c>
       <c r="J3" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K3" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3509979013134995</v>
+        <v>0.3513935457853284</v>
       </c>
       <c r="M3" t="n">
-        <v>7.446988110521804</v>
+        <v>7.425741717101319</v>
       </c>
       <c r="N3" t="n">
-        <v>84.7779369065945</v>
+        <v>84.40745957008907</v>
       </c>
       <c r="O3" t="n">
-        <v>9.207493519226309</v>
+        <v>9.187353240737458</v>
       </c>
       <c r="P3" t="n">
-        <v>361.8657998548151</v>
+        <v>361.9025669034191</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27938,28 +28078,28 @@
         <v>0.0445</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000595887433848</v>
+        <v>0.9976599255604126</v>
       </c>
       <c r="J4" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K4" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3917931949749951</v>
+        <v>0.3929903497370195</v>
       </c>
       <c r="M4" t="n">
-        <v>7.610725783239486</v>
+        <v>7.582951042374684</v>
       </c>
       <c r="N4" t="n">
-        <v>89.26351855100413</v>
+        <v>88.79722085975716</v>
       </c>
       <c r="O4" t="n">
-        <v>9.447937264345278</v>
+        <v>9.423227730441262</v>
       </c>
       <c r="P4" t="n">
-        <v>360.3271931952923</v>
+        <v>360.3561953319124</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28016,28 +28156,28 @@
         <v>0.057</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9645493338626727</v>
+        <v>0.9608530962754351</v>
       </c>
       <c r="J5" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K5" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3891547976537827</v>
+        <v>0.3897388130888175</v>
       </c>
       <c r="M5" t="n">
-        <v>7.017653847682066</v>
+        <v>6.996877116334694</v>
       </c>
       <c r="N5" t="n">
-        <v>83.12239652086136</v>
+        <v>82.74162739781413</v>
       </c>
       <c r="O5" t="n">
-        <v>9.117148486279104</v>
+        <v>9.09624248785256</v>
       </c>
       <c r="P5" t="n">
-        <v>363.8653732337374</v>
+        <v>363.9020478749497</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28094,28 +28234,28 @@
         <v>0.0561</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8187860198756129</v>
+        <v>0.811656863904121</v>
       </c>
       <c r="J6" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K6" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3233241360282879</v>
+        <v>0.3212558848083599</v>
       </c>
       <c r="M6" t="n">
-        <v>7.168971169085843</v>
+        <v>7.165966707357371</v>
       </c>
       <c r="N6" t="n">
-        <v>79.44268253562845</v>
+        <v>79.26072114129373</v>
       </c>
       <c r="O6" t="n">
-        <v>8.913062466718634</v>
+        <v>8.902849046304993</v>
       </c>
       <c r="P6" t="n">
-        <v>364.5946193097625</v>
+        <v>364.665290457613</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28172,28 +28312,28 @@
         <v>0.054</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7637705376509596</v>
+        <v>0.7594559215807347</v>
       </c>
       <c r="J7" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K7" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2811462092811796</v>
+        <v>0.2808464737431694</v>
       </c>
       <c r="M7" t="n">
-        <v>7.259196663234275</v>
+        <v>7.2431875112618</v>
       </c>
       <c r="N7" t="n">
-        <v>83.92614919321335</v>
+        <v>83.57162218240487</v>
       </c>
       <c r="O7" t="n">
-        <v>9.161121612183377</v>
+        <v>9.141751592687523</v>
       </c>
       <c r="P7" t="n">
-        <v>367.8580545819447</v>
+        <v>367.9010445496265</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28250,28 +28390,28 @@
         <v>0.0464</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4972513387341908</v>
+        <v>0.4958589597662896</v>
       </c>
       <c r="J8" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K8" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1550134112423546</v>
+        <v>0.1557270368081757</v>
       </c>
       <c r="M8" t="n">
-        <v>6.82236062784776</v>
+        <v>6.792297022178021</v>
       </c>
       <c r="N8" t="n">
-        <v>75.71757234036828</v>
+        <v>75.31500029660776</v>
       </c>
       <c r="O8" t="n">
-        <v>8.701584472977796</v>
+        <v>8.678421532548864</v>
       </c>
       <c r="P8" t="n">
-        <v>379.7765065210279</v>
+        <v>379.7903893258871</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28328,28 +28468,28 @@
         <v>0.0553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6343772961883694</v>
+        <v>0.6336182489842839</v>
       </c>
       <c r="J9" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K9" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2442541147216211</v>
+        <v>0.2459051757164455</v>
       </c>
       <c r="M9" t="n">
-        <v>6.787734294365132</v>
+        <v>6.754461653197922</v>
       </c>
       <c r="N9" t="n">
-        <v>69.9629471777772</v>
+        <v>69.58191165756793</v>
       </c>
       <c r="O9" t="n">
-        <v>8.36438564257873</v>
+        <v>8.341577288353081</v>
       </c>
       <c r="P9" t="n">
-        <v>373.5756632624367</v>
+        <v>373.5832065005726</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28406,28 +28546,28 @@
         <v>0.056</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8354177474819903</v>
+        <v>0.832900704919448</v>
       </c>
       <c r="J10" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K10" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L10" t="n">
-        <v>0.324736543365461</v>
+        <v>0.3257826553073803</v>
       </c>
       <c r="M10" t="n">
-        <v>7.120580455141321</v>
+        <v>7.093463423017536</v>
       </c>
       <c r="N10" t="n">
-        <v>81.00659983922438</v>
+        <v>80.59918034288116</v>
       </c>
       <c r="O10" t="n">
-        <v>9.000366650266219</v>
+        <v>8.977704625508748</v>
       </c>
       <c r="P10" t="n">
-        <v>362.2787937923581</v>
+        <v>362.3040894287911</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28484,28 +28624,28 @@
         <v>0.0582</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7816874036184365</v>
+        <v>0.7810990716010623</v>
       </c>
       <c r="J11" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K11" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L11" t="n">
-        <v>0.291465907614477</v>
+        <v>0.2934499707275676</v>
       </c>
       <c r="M11" t="n">
-        <v>7.514694931660347</v>
+        <v>7.47694938745588</v>
       </c>
       <c r="N11" t="n">
-        <v>84.05432738050015</v>
+        <v>83.5995545547552</v>
       </c>
       <c r="O11" t="n">
-        <v>9.168114712442256</v>
+        <v>9.143279201400075</v>
       </c>
       <c r="P11" t="n">
-        <v>357.1293324743084</v>
+        <v>357.1351613918896</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28562,28 +28702,28 @@
         <v>0.0525</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7868907780888766</v>
+        <v>0.7885437267802552</v>
       </c>
       <c r="J12" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K12" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2500206258660443</v>
+        <v>0.2527539347443503</v>
       </c>
       <c r="M12" t="n">
-        <v>8.570989036391349</v>
+        <v>8.540557365371066</v>
       </c>
       <c r="N12" t="n">
-        <v>105.4413802934899</v>
+        <v>104.9304951664611</v>
       </c>
       <c r="O12" t="n">
-        <v>10.26846533292536</v>
+        <v>10.24355871591807</v>
       </c>
       <c r="P12" t="n">
-        <v>356.3114370308505</v>
+        <v>356.2950132189524</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28640,28 +28780,28 @@
         <v>0.0532</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7961273441451463</v>
+        <v>0.7964892562171592</v>
       </c>
       <c r="J13" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K13" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2625177641591346</v>
+        <v>0.2647416943689446</v>
       </c>
       <c r="M13" t="n">
-        <v>8.221898937314569</v>
+        <v>8.184884545456686</v>
       </c>
       <c r="N13" t="n">
-        <v>100.7248194812897</v>
+        <v>100.1923620804034</v>
       </c>
       <c r="O13" t="n">
-        <v>10.03617554057768</v>
+        <v>10.00961348306734</v>
       </c>
       <c r="P13" t="n">
-        <v>358.2246876997978</v>
+        <v>358.2210585535233</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28718,28 +28858,28 @@
         <v>0.0551</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8050596356947887</v>
+        <v>0.8002120993307689</v>
       </c>
       <c r="J14" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K14" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2348393104317348</v>
+        <v>0.2343200780446901</v>
       </c>
       <c r="M14" t="n">
-        <v>8.882673195076556</v>
+        <v>8.860780320188626</v>
       </c>
       <c r="N14" t="n">
-        <v>120.782210757601</v>
+        <v>120.2800642065636</v>
       </c>
       <c r="O14" t="n">
-        <v>10.99009603040851</v>
+        <v>10.96722682388596</v>
       </c>
       <c r="P14" t="n">
-        <v>362.2088061663839</v>
+        <v>362.2572850431344</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28796,28 +28936,28 @@
         <v>0.054</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6047400426367199</v>
+        <v>0.6004711523853621</v>
       </c>
       <c r="J15" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K15" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1498634901882251</v>
+        <v>0.1493081707246718</v>
       </c>
       <c r="M15" t="n">
-        <v>8.674389360934796</v>
+        <v>8.64861316316021</v>
       </c>
       <c r="N15" t="n">
-        <v>116.2366960542292</v>
+        <v>115.6938853988594</v>
       </c>
       <c r="O15" t="n">
-        <v>10.78131235305931</v>
+        <v>10.75610921285478</v>
       </c>
       <c r="P15" t="n">
-        <v>366.5801608857839</v>
+        <v>366.6235792260217</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28874,28 +29014,28 @@
         <v>0.0605</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3192194505146487</v>
+        <v>0.3174584702805892</v>
       </c>
       <c r="J16" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K16" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04959809098120338</v>
+        <v>0.04958891668622201</v>
       </c>
       <c r="M16" t="n">
-        <v>8.345993447481456</v>
+        <v>8.308410429686845</v>
       </c>
       <c r="N16" t="n">
-        <v>108.1029478629975</v>
+        <v>107.5202214991485</v>
       </c>
       <c r="O16" t="n">
-        <v>10.3972567469981</v>
+        <v>10.36919579809102</v>
       </c>
       <c r="P16" t="n">
-        <v>366.3041290362793</v>
+        <v>366.3220670471526</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28952,28 +29092,28 @@
         <v>0.0612</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.01297193668007827</v>
+        <v>-0.01345004258954926</v>
       </c>
       <c r="J17" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K17" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L17" t="n">
-        <v>6.046636725909327e-05</v>
+        <v>6.573270926402142e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>10.13494711112416</v>
+        <v>10.09284406176031</v>
       </c>
       <c r="N17" t="n">
-        <v>153.544890139088</v>
+        <v>152.7056805621774</v>
       </c>
       <c r="O17" t="n">
-        <v>12.39132317951106</v>
+        <v>12.35741399169654</v>
       </c>
       <c r="P17" t="n">
-        <v>375.2339725615477</v>
+        <v>375.2388656728782</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29011,7 +29151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R411"/>
+  <dimension ref="A1:R413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63455,6 +63595,190 @@
         </is>
       </c>
     </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-04 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>-37.74426743845748,176.47052045458764</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>-37.74491753341991,176.47088227322868</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>-37.7455625914316,176.47124074351925</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>-37.74617075264284,176.47164391351617</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>-37.74679332246759,176.4720492874244</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>-37.74736442492879,176.4725795611598</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>-37.74790019084311,176.4731720582738</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>-37.74850427181455,176.47364503280585</t>
+        </is>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>-37.74913191737681,176.47407231869192</t>
+        </is>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>-37.74971858743481,176.47457540015108</t>
+        </is>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>-37.750298048792835,176.47509966048077</t>
+        </is>
+      </c>
+      <c r="M412" t="inlineStr">
+        <is>
+          <t>-37.750868399104164,176.47563883162968</t>
+        </is>
+      </c>
+      <c r="N412" t="inlineStr">
+        <is>
+          <t>-37.75143589087773,176.47617901056879</t>
+        </is>
+      </c>
+      <c r="O412" t="inlineStr">
+        <is>
+          <t>-37.75203838379206,176.47664771653348</t>
+        </is>
+      </c>
+      <c r="P412" t="inlineStr">
+        <is>
+          <t>-37.7526223038339,176.47716397402633</t>
+        </is>
+      </c>
+      <c r="Q412" t="inlineStr">
+        <is>
+          <t>-37.75318462476472,176.47771858274652</t>
+        </is>
+      </c>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>-37.744304129647915,176.47042078344552</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>-37.74493820784921,176.4708261113919</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>-37.745570951331594,176.4712193884586</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>-37.74618299308914,176.47161838874527</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>-37.74678789118743,176.47205916929136</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>-37.747353898079254,176.47259837567915</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>-37.74790736875608,176.47315942651275</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>-37.74849688918792,176.4736578982217</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>-37.74911119995327,176.47410703176456</t>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>-37.749715987579464,176.47457963069604</t>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>-37.75026668976352,176.47515195928673</t>
+        </is>
+      </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>-37.75085389481377,176.47566368033102</t>
+        </is>
+      </c>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t>-37.75146230347145,176.4761336642258</t>
+        </is>
+      </c>
+      <c r="O413" t="inlineStr">
+        <is>
+          <t>-37.75201684001857,176.4766823467546</t>
+        </is>
+      </c>
+      <c r="P413" t="inlineStr">
+        <is>
+          <t>-37.7526038706401,176.4771943503456</t>
+        </is>
+      </c>
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t>-37.75321405957306,176.47766538932632</t>
+        </is>
+      </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0220/nzd0220.xlsx
+++ b/data/nzd0220/nzd0220.xlsx
@@ -27916,10 +27916,10 @@
         <v>0.045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0419</v>
+        <v>0.0421</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0503</v>
+        <v>0.0469</v>
       </c>
       <c r="I2" t="n">
         <v>0.5595680008706385</v>
@@ -27991,13 +27991,13 @@
         <v>0.06670196341807368</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0384</v>
+        <v>0.045</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0454</v>
+        <v>0.0548</v>
       </c>
       <c r="I3" t="n">
         <v>0.8899180258947391</v>
@@ -28069,13 +28069,13 @@
         <v>0.1334039268361474</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0384</v>
+        <v>0.0532</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0445</v>
+        <v>0.0713</v>
       </c>
       <c r="I4" t="n">
         <v>0.9976599255604126</v>
@@ -28147,13 +28147,13 @@
         <v>0.1999099768072465</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0474</v>
+        <v>0.0485</v>
       </c>
       <c r="H5" t="n">
-        <v>0.057</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="I5" t="n">
         <v>0.9608530962754351</v>
@@ -28225,13 +28225,13 @@
         <v>0.2666119402254845</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G6" t="n">
-        <v>0.047</v>
+        <v>0.0634</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0561</v>
+        <v>0.0868</v>
       </c>
       <c r="I6" t="n">
         <v>0.8116568639041208</v>
@@ -28303,13 +28303,13 @@
         <v>0.3333128737046162</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0475</v>
+        <v>0.0581</v>
       </c>
       <c r="H7" t="n">
-        <v>0.054</v>
+        <v>0.0658</v>
       </c>
       <c r="I7" t="n">
         <v>0.7594559215807347</v>
@@ -28381,13 +28381,13 @@
         <v>0.400014837122227</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0393</v>
+        <v>0.0496</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0464</v>
+        <v>0.0583</v>
       </c>
       <c r="I8" t="n">
         <v>0.4958589597662896</v>
@@ -28462,10 +28462,10 @@
         <v>0.05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0467</v>
+        <v>0.047</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0553</v>
+        <v>0.058</v>
       </c>
       <c r="I9" t="n">
         <v>0.6336182489842838</v>
@@ -28537,13 +28537,13 @@
         <v>0.5334100161900184</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0487</v>
+        <v>0.0534</v>
       </c>
       <c r="H10" t="n">
-        <v>0.056</v>
+        <v>0.0709</v>
       </c>
       <c r="I10" t="n">
         <v>0.832900704919448</v>
@@ -28615,13 +28615,13 @@
         <v>0.6001119796074166</v>
       </c>
       <c r="F11" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05</v>
+        <v>0.0546</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0582</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="I11" t="n">
         <v>0.7810803249813726</v>
@@ -28693,13 +28693,13 @@
         <v>0.6668139430248149</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0447</v>
+        <v>0.0512</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0525</v>
+        <v>0.0641</v>
       </c>
       <c r="I12" t="n">
         <v>0.788543726780255</v>
@@ -28771,13 +28771,13 @@
         <v>0.7335142977554123</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0452</v>
+        <v>0.0531</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0532</v>
+        <v>0.0638</v>
       </c>
       <c r="I13" t="n">
         <v>0.7964892562171589</v>
@@ -28849,13 +28849,13 @@
         <v>0.800216261173271</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0471</v>
+        <v>0.0526</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0551</v>
+        <v>0.0611</v>
       </c>
       <c r="I14" t="n">
         <v>0.8002120993307688</v>
@@ -28927,13 +28927,13 @@
         <v>0.8669182245906203</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0442</v>
+        <v>0.0506</v>
       </c>
       <c r="H15" t="n">
-        <v>0.054</v>
+        <v>0.0576</v>
       </c>
       <c r="I15" t="n">
         <v>0.6004711523853621</v>
@@ -29005,13 +29005,13 @@
         <v>0.933585828145311</v>
       </c>
       <c r="F16" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G16" t="n">
-        <v>0.047</v>
+        <v>0.0569</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0605</v>
+        <v>0.0801</v>
       </c>
       <c r="I16" t="n">
         <v>0.3174300272140677</v>
@@ -29083,13 +29083,13 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.055</v>
+        <v>0.05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0479</v>
+        <v>0.0475</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0612</v>
+        <v>0.0583</v>
       </c>
       <c r="I17" t="n">
         <v>-0.01348152586702219</v>
